--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A87008B5-F648-47EF-90FB-36A007E91AB0}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC2ED7C-4C48-454B-83FA-A4D77BD764C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16905" windowWidth="14865" xWindow="-28410" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="86">
   <si>
     <t>Result</t>
   </si>
@@ -156,41 +156,157 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Sep 27 19:12:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 19:12:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 19:13:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 19:14:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 19:15:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 19:17:03 EDT 2023</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Wed Sep 27 21:45:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Sep 27 21:46:23 EDT 2023</t>
+    <t>Thu Sep 28 21:11:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:11:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:12:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:12:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:13:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:14:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:14:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:15:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:16:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:16:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:17:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:18:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:18:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:19:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:19:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:20:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:21:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:21:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:22:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:23:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:23:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:24:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:24:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 21:58:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:03:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:04:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:04:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:05:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:05:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:12:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:13:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:13:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:14:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Thu Sep 28 22:15:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:55:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:56:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:56:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:57:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:58:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:58:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:59:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 15:59:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:00:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:01:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:01:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:02:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:02:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:03:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 16:04:10 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,19 +349,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -262,10 +378,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -300,7 +416,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -352,7 +468,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -463,21 +579,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -494,7 +610,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -546,31 +662,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -604,7 +720,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -627,7 +743,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -647,10 +763,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -673,10 +789,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -699,10 +815,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -725,10 +841,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -750,8 +866,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -759,21 +875,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:E12"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="17.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -797,6 +913,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -808,6 +930,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -819,6 +947,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -830,6 +964,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -844,6 +984,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -858,6 +1004,12 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -869,6 +1021,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -880,6 +1038,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
@@ -891,6 +1055,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -902,6 +1072,12 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -916,6 +1092,12 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -930,7 +1112,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -938,8 +1120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -947,15 +1129,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -985,6 +1167,12 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1002,6 +1190,12 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1016,6 +1210,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1033,6 +1233,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1050,6 +1256,12 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1067,6 +1279,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1084,7 +1302,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1092,23 +1310,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1135,6 +1353,12 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1149,6 +1373,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1166,6 +1396,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1183,6 +1419,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>74</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1200,6 +1442,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1217,6 +1465,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1231,6 +1485,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
@@ -1248,6 +1508,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
       </c>
@@ -1265,6 +1531,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1282,6 +1554,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1299,6 +1577,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>81</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1313,6 +1597,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1330,6 +1620,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1347,6 +1643,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1364,6 +1666,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1381,7 +1689,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1389,8 +1697,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1398,15 +1706,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1798,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1498,8 +1806,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
@@ -1507,12 +1815,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,6 +1844,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1550,6 +1864,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1564,6 +1884,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1578,6 +1904,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1592,6 +1924,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1606,13 +1944,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
@@ -1620,12 +1958,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,6 +1987,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1663,6 +2007,12 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
       </c>
@@ -1677,6 +2027,12 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
@@ -1691,6 +2047,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,6 +2067,12 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1719,13 +2087,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -1733,12 +2101,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1759,6 +2127,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1770,6 +2144,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC2ED7C-4C48-454B-83FA-A4D77BD764C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1FC2ED7C-4C48-454B-83FA-A4D77BD764C7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="185">
   <si>
     <t>Result</t>
   </si>
@@ -301,12 +301,310 @@
   </si>
   <si>
     <t>Fri Sep 29 16:04:10 EDT 2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:37:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:38:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:39:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:39:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:40:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:40:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:41:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:42:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:42:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:43:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:44:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:44:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:45:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:46:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:46:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:47:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:48:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:48:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:49:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:49:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:50:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:51:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:51:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:52:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:52:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:53:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:54:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:54:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:55:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:55:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:56:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:57:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:57:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:58:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:58:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 18:59:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:00:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:00:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:01:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:01:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:02:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:03:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:03:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:04:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:04:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:05:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:06:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:06:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Sep 29 19:07:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:51:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:52:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:53:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:53:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:54:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:54:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:55:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:56:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:56:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:57:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:58:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:58:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 17:59:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:00:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:00:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:01:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:01:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:02:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:03:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:03:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:04:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:05:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:05:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:06:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:06:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:07:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:08:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:08:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:09:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:09:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:10:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:11:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:11:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:12:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:12:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:13:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:14:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:14:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:15:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:15:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:16:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:17:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:17:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:18:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:18:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:19:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:20:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:20:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 02 18:21:35 EDT 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -349,19 +647,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -378,10 +676,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -416,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -468,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -579,21 +877,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -610,7 +908,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -662,15 +960,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -678,15 +976,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -720,7 +1018,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -743,7 +1041,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -766,7 +1064,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -792,7 +1090,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -818,7 +1116,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -844,7 +1142,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -866,8 +1164,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -875,8 +1173,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C11"/>
@@ -884,12 +1182,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -917,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -934,7 +1232,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -951,7 +1249,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -968,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -988,7 +1286,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1008,7 +1306,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1025,7 +1323,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1042,7 +1340,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1059,7 +1357,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1076,7 +1374,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>151</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1096,7 +1394,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1112,7 +1410,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1120,8 +1418,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1129,15 +1427,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1171,7 +1469,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1194,7 +1492,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1214,7 +1512,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1237,7 +1535,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1260,7 +1558,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1283,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1302,7 +1600,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1310,8 +1608,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E6"/>
@@ -1319,14 +1617,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1357,7 +1655,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1377,7 +1675,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1400,7 +1698,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1423,7 +1721,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1446,7 +1744,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1469,7 +1767,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1489,7 +1787,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1512,7 +1810,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1535,7 +1833,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1558,7 +1856,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1581,7 +1879,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1601,7 +1899,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1624,7 +1922,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1647,7 +1945,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1670,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1689,7 +1987,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1697,8 +1995,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1706,15 +2004,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1798,7 +2096,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1806,8 +2104,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
@@ -1815,12 +2113,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,7 +2146,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1868,7 +2166,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1888,7 +2186,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1908,7 +2206,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1928,7 +2226,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1944,13 +2242,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
@@ -1958,12 +2256,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,7 +2289,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2011,7 +2309,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2031,7 +2329,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2051,7 +2349,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>183</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2071,7 +2369,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>184</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2087,13 +2385,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
@@ -2101,12 +2399,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2131,7 +2429,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2144,6 +2442,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1FC2ED7C-4C48-454B-83FA-A4D77BD764C7}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B1C7AAEE-0257-4963-BB52-8ADB9848F5AF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView activeTab="1" windowHeight="16620" windowWidth="18810" xWindow="4440" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="390"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="110">
   <si>
     <t>Result</t>
   </si>
@@ -156,448 +156,223 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Thu Sep 28 21:11:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:11:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:12:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:12:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:13:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:14:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:14:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:15:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:16:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:16:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:17:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:18:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:18:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:19:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:19:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:20:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:21:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:21:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:22:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:23:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:23:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:24:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:24:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 21:58:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:03:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:04:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:04:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:05:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:05:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:12:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:13:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:13:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:14:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Thu Sep 28 22:15:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:55:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:56:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:56:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:57:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:58:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:58:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:59:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 15:59:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:00:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:01:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:01:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:02:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:02:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:03:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 16:04:10 EDT 2023</t>
+    <t>Fri Oct 06 11:33:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:34:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:34:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:35:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:35:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:36:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:37:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:37:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:38:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:39:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:39:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:40:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:40:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:42:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:42:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:44:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:44:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:45:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:45:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:46:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:47:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:47:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:48:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:48:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:49:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:50:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:50:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:51:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:51:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:52:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:53:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:53:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:54:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:54:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:55:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:56:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:56:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:57:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:57:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:58:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:59:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 11:59:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:00:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:00:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:01:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:01:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:02:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:03:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Fri Oct 06 12:03:58 EDT 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fri Sep 29 18:37:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:38:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:39:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:39:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:40:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:40:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:41:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:42:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:42:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:43:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:44:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:44:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:45:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:46:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:46:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:47:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:48:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:48:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:49:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:49:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:50:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:51:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:51:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:52:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:52:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:53:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:54:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:54:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:55:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:55:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:56:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:57:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:57:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:58:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:58:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 18:59:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:00:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:00:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:01:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:01:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:02:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:03:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:03:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:04:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:04:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:05:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:06:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:06:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Sep 29 19:07:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:51:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:52:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:53:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:53:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:54:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:54:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:55:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:56:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:56:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:57:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:58:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:58:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 17:59:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:00:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:00:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:01:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:01:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:02:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:03:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:03:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:04:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:05:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:05:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:06:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:06:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:07:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:08:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:08:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:09:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:09:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:10:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:11:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:11:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:12:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:12:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:13:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:14:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:14:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:15:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:15:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:16:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:17:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:17:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:18:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:18:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:19:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:20:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:20:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 02 18:21:35 EDT 2023</t>
+    <t>Mon Oct 09 16:00:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:01:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:01:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:02:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:02:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:03:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:04:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:04:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:05:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:06:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 16:06:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:30:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:31:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:32:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:32:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:33:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:33:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:34:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:35:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:35:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:36:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 17:37:00 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +793,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1041,7 +816,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1064,7 +839,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1090,7 +865,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1116,7 +891,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1142,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1176,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,7 +990,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1232,7 +1007,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1249,7 +1024,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1266,7 +1041,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1286,7 +1061,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1306,7 +1081,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1323,7 +1098,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1340,7 +1115,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1357,7 +1132,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1374,7 +1149,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1394,7 +1169,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1469,7 +1244,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1492,7 +1267,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1512,7 +1287,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1535,7 +1310,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1558,7 +1333,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1581,7 +1356,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1611,7 +1386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E6"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1430,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1675,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1698,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1721,7 +1496,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1744,7 +1519,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1767,7 +1542,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1787,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1810,7 +1585,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1833,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1856,7 +1631,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1879,7 +1654,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1899,7 +1674,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1922,7 +1697,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1945,7 +1720,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1968,7 +1743,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -2146,7 +1921,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2166,7 +1941,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2186,7 +1961,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2206,7 +1981,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2226,7 +2001,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2289,7 +2064,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>82</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2309,7 +2084,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>83</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2329,7 +2104,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2349,7 +2124,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2369,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2429,7 +2204,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B1C7AAEE-0257-4963-BB52-8ADB9848F5AF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{78F5FF3E-550B-40C0-B878-A4573C9F1294}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="16620" windowWidth="18810" xWindow="4440" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="390"/>
+    <workbookView activeTab="1" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
   <si>
     <t>Result</t>
   </si>
@@ -156,223 +156,301 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Fri Oct 06 11:33:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:34:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:34:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:35:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:35:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:36:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:37:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:37:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:38:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:39:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:39:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:40:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:40:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:42:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:42:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:44:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:44:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:45:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:45:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:46:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:47:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:47:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:48:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:48:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:49:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:50:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:50:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:51:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:51:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:52:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:53:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:53:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:54:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:54:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:55:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:56:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:56:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:57:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:57:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:58:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:59:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 11:59:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:00:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:00:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:01:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:01:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:02:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:03:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Fri Oct 06 12:03:58 EDT 2023</t>
+    <t>Mon Oct 09 23:05:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:06:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:06:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:07:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:07:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:08:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:08:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:09:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:09:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:10:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:11:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:11:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:12:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:12:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:13:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:13:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:14:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:14:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:15:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:16:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:16:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Oct 09 23:17:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:25:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:26:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:27:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:27:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:28:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:29:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:48:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:49:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:49:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:50:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:51:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:51:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:53:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:54:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:55:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 10 11:55:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:02:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:03:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:03:45 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:04:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:05:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:05:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:06:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:06:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:07:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:08:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:08:52 EDT 2023</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Mon Oct 09 16:00:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:01:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:01:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:02:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:02:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:03:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:04:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:04:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:05:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:06:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 16:06:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:30:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:31:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:32:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:32:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:33:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:33:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:34:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:35:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:35:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:36:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 17:37:00 EDT 2023</t>
+    <t>Wed Oct 11 13:18:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:19:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:19:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:20:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:20:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:21:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:25:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:26:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:27:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:27:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:28:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:28:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:17:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:18:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:19:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:19:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:20:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:20:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:21:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:22:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:22:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:23:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:23:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:24:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:25:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:25:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:26:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:33:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:34:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:39:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:40:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:40:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:41:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:42:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:42:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:43:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:44:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:44:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:45:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:58:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:59:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:00:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:00:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:01:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:06:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:06:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:07:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:08:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:09:01 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -793,7 +871,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -816,7 +894,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -839,7 +917,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -865,7 +943,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -891,7 +969,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -917,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -952,7 +1030,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1007,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1024,7 +1102,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1041,7 +1119,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1061,7 +1139,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1081,7 +1159,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1098,7 +1176,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1115,7 +1193,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1132,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1149,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1169,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1244,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1267,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1287,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1310,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1333,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1356,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1430,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1450,7 +1528,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1473,7 +1551,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1496,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1519,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1542,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1562,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1585,7 +1663,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1608,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1631,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1654,7 +1732,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1674,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1697,7 +1775,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1720,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1743,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1921,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1941,7 +2019,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1961,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1981,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2001,7 +2079,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2064,7 +2142,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2084,7 +2162,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2104,7 +2182,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2124,7 +2202,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2144,7 +2222,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2204,7 +2282,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{78F5FF3E-550B-40C0-B878-A4573C9F1294}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D07BBF97-757D-4E6C-A0BD-B61801D49735}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView activeTab="3" windowHeight="14565" windowWidth="18810" xWindow="-20625" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1620"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -156,132 +156,12 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Mon Oct 09 23:05:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:06:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:06:35 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:07:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:07:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:08:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:08:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:09:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:09:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:10:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:11:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:11:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:12:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:12:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:13:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:13:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:14:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:14:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:15:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:16:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:16:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Oct 09 23:17:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:25:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:26:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:27:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:27:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:28:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:29:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:48:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:49:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:49:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:50:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:51:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:51:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:53:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:54:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:55:03 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 10 11:55:39 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Oct 11 13:02:26 EDT 2023</t>
   </si>
   <si>
     <t>Wed Oct 11 13:03:07 EDT 2023</t>
   </si>
   <si>
-    <t>Wed Oct 11 13:03:45 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:04:23 EDT 2023</t>
-  </si>
-  <si>
     <t>Wed Oct 11 13:05:01 EDT 2023</t>
   </si>
   <si>
@@ -303,154 +183,274 @@
     <t>Wed Oct 11 13:08:52 EDT 2023</t>
   </si>
   <si>
+    <t>Wed Oct 11 13:18:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:20:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:20:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:21:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:25:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:27:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:28:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 13:28:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:19:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:19:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:20:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:20:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:21:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:22:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:22:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:23:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:23:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:24:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:25:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:25:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:26:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:34:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:42:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:43:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:44:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:44:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 16:45:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:06:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:06:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:07:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:08:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Wed Oct 11 17:09:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:34:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:34:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:38:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:38:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:42:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:42:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:45:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:46:00 EDT 2023</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Wed Oct 11 13:18:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:19:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:19:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:20:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:20:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:21:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:25:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:26:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:27:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:27:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:28:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:28:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:17:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:18:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:19:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:19:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:20:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:20:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:21:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:22:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:22:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:23:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:23:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:24:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:25:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:25:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:26:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:33:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:34:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:39:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:40:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:40:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:41:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:42:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:42:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:43:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:44:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:44:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:45:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:58:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:59:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:00:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:00:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:01:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:06:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:06:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:07:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:08:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:09:01 EDT 2023</t>
+    <t>Tue Oct 31 17:48:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:49:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:49:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:50:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:51:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:51:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:52:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:52:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:53:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:54:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:54:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:55:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:55:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:56:29 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:57:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:57:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:58:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:58:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:59:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:00:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:00:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:01:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:01:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:02:25 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:03:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:03:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:04:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:04:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:05:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:05:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:06:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:07:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:07:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:08:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:08:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:09:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:09:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:10:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:11:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:11:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:12:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:12:40 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:13:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:13:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:14:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:14:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:15:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:16:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:16:55 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1029,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,7 +1068,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1085,7 +1085,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1102,7 +1102,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1119,7 +1119,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1139,7 +1139,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1159,7 +1159,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1176,7 +1176,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1193,7 +1193,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1210,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1227,7 +1227,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1247,7 +1247,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1322,7 +1322,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1345,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1365,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1388,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1411,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1434,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1464,14 +1464,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
     <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
@@ -1508,7 +1508,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1528,7 +1528,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1551,7 +1551,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1574,7 +1574,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1597,7 +1597,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1620,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1640,7 +1640,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1663,7 +1663,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1709,7 +1709,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1732,7 +1732,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1752,7 +1752,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1775,7 +1775,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1798,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1821,7 +1821,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1999,7 +1999,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2019,7 +2019,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -2039,7 +2039,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2059,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2079,7 +2079,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2282,7 +2282,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{D07BBF97-757D-4E6C-A0BD-B61801D49735}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6E0CDAB0-048A-4EB9-9924-0DF5B880158F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="14565" windowWidth="18810" xWindow="-20625" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1620"/>
+    <workbookView activeTab="5" firstSheet="3" windowHeight="14565" windowWidth="18810" xWindow="8505" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1395"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="98">
   <si>
     <t>Result</t>
   </si>
@@ -156,301 +156,187 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Wed Oct 11 13:02:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:03:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:05:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:05:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:06:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:06:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:07:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:08:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:08:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:18:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:20:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:20:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:21:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:25:48 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:27:39 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:28:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 13:28:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:19:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:19:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:20:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:20:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:21:31 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:22:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:22:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:23:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:23:54 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:24:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:25:05 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:25:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:26:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:34:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:42:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:43:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:44:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:44:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 16:45:14 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:06:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:06:56 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:07:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:08:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Wed Oct 11 17:09:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:34:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:34:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:38:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:38:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:42:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:42:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:45:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:46:00 EDT 2023</t>
+    <t>Tue Oct 31 17:58:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 17:59:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:00:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:00:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:01:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Oct 31 18:01:50 EDT 2023</t>
+  </si>
+  <si>
+    <t>DONOTRUN</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:44:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:45:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:45:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:46:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:46:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:47:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:48:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:48:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:49:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:50:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:50:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:51:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:51:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:52:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:53:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:53:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:54:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:55:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:55:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:56:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:56:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:57:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:57:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:58:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:59:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 21:59:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:00:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:00:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:01:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:01:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:02:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:03:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:03:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:04:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:04:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:05:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:06:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:07:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:07:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:08:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:09:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:10:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Dec 07 22:10:47 EST 2023</t>
+  </si>
+  <si>
+    <t>DoNotRun</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Oct 31 17:48:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:49:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:49:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:50:24 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:51:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:51:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:52:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:52:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:53:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:54:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:54:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:55:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:55:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:56:29 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:57:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:57:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:58:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:58:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:59:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:00:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:00:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:01:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:01:50 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:02:25 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:03:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:03:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:04:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:04:43 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:05:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:05:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:06:27 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:07:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:07:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:08:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:08:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:09:19 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:09:53 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:10:28 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:11:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:11:37 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:12:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:12:40 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:13:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:13:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:14:17 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:14:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:15:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:16:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:16:55 EDT 2023</t>
+    <t>Fri Dec 08 10:46:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:46:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:47:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:47:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:48:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:48:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:49:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Fri Dec 08 10:50:08 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -871,7 +757,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -894,7 +780,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -917,7 +803,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -943,7 +829,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -969,7 +855,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -995,7 +881,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1068,7 +954,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1085,7 +971,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1102,7 +988,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1119,7 +1005,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1139,7 +1025,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1159,7 +1045,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1176,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1193,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1210,7 +1096,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1227,7 +1113,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1247,7 +1133,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1282,7 +1168,7 @@
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
     <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
@@ -1322,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1345,10 +1231,10 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1365,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1388,10 +1274,10 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1411,10 +1297,10 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1434,10 +1320,10 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -1464,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
@@ -1508,7 +1394,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -1528,7 +1414,7 @@
         <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>33</v>
@@ -1551,7 +1437,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -1574,7 +1460,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -1597,7 +1483,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -1620,7 +1506,7 @@
         <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>33</v>
@@ -1640,7 +1526,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>33</v>
@@ -1663,7 +1549,7 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -1686,7 +1572,7 @@
         <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -1709,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1732,7 +1618,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>33</v>
@@ -1752,7 +1638,7 @@
         <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>33</v>
@@ -1775,7 +1661,7 @@
         <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>33</v>
@@ -1798,7 +1684,7 @@
         <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>33</v>
@@ -1821,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>33</v>
@@ -1852,14 +1738,14 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -1905,6 +1791,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1960,15 +1849,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -1999,7 +1888,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2016,13 +1905,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2039,7 +1928,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2059,7 +1948,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2079,7 +1968,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2104,14 +1993,14 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
     <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
@@ -2142,7 +2031,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>
@@ -2159,13 +2048,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2182,7 +2071,7 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>33</v>
@@ -2202,7 +2091,7 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -2222,7 +2111,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
@@ -2282,7 +2171,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>33</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6E0CDAB0-048A-4EB9-9924-0DF5B880158F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174A63DD-223A-4555-89E5-6ED5987707B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="3" windowHeight="14565" windowWidth="18810" xWindow="8505" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="1395"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="98">
   <si>
     <t>Result</t>
   </si>
@@ -141,9 +141,6 @@
     <t>2021</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -276,45 +273,18 @@
     <t>Thu Dec 07 22:03:44 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 22:04:19 EST 2023</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>Thu Dec 07 22:04:52 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 22:05:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:06:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:07:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:07:35 EST 2023</t>
-  </si>
-  <si>
     <t>Thu Dec 07 22:08:14 EST 2023</t>
   </si>
   <si>
-    <t>Thu Dec 07 22:09:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:10:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:10:47 EST 2023</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Fri Dec 08 10:46:01 EST 2023</t>
   </si>
   <si>
@@ -337,13 +307,42 @@
   </si>
   <si>
     <t>Fri Dec 08 10:50:08 EST 2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>Admissions and Amusement Tax</t>
+  </si>
+  <si>
+    <t>Estate Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Slots License Fee</t>
+  </si>
+  <si>
+    <t>Tobacco Tax</t>
+  </si>
+  <si>
+    <t>Transportation Network Services</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>IFTA Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,19 +385,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -415,10 +414,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -453,7 +452,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -505,7 +504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -616,21 +615,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -647,7 +646,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -699,15 +698,554 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -715,15 +1253,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -749,597 +1287,146 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1347,23 +1434,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1386,18 +1473,18 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1406,18 +1493,18 @@
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -1426,21 +1513,21 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1449,21 +1536,21 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1472,21 +1559,21 @@
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1495,21 +1582,21 @@
         <v>13</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1518,18 +1605,18 @@
         <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1538,21 +1625,21 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1561,21 +1648,21 @@
         <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1584,21 +1671,21 @@
         <v>12</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1607,21 +1694,21 @@
         <v>13</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -1630,18 +1717,18 @@
         <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -1650,21 +1737,21 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1673,21 +1760,21 @@
         <v>11</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
@@ -1696,21 +1783,21 @@
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -1719,14 +1806,560 @@
         <v>13</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1734,24 +2367,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +2412,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1792,7 +2425,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1812,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1823,7 +2456,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1834,11 +2467,11 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1846,21 +2479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,13 +2518,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1900,18 +2533,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1925,13 +2558,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1940,18 +2573,18 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1960,18 +2593,18 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1980,30 +2613,30 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,13 +2661,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -2043,18 +2676,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>84</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2068,13 +2701,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -2083,18 +2716,18 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -2103,18 +2736,18 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -2123,30 +2756,30 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2168,13 +2801,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -2184,6 +2817,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174A63DD-223A-4555-89E5-6ED5987707B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41533F0-B5A4-45AB-A7AD-E04DC7035613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="1725" yWindow="1275" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="145">
   <si>
     <t>Result</t>
   </si>
@@ -174,105 +174,6 @@
     <t>DONOTRUN</t>
   </si>
   <si>
-    <t>Thu Dec 07 21:44:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:45:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:45:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:46:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:46:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:47:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:48:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:48:45 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:49:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:50:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:50:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:51:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:51:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:52:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:53:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:53:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:54:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:55:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:55:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:56:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:56:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:57:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:57:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:58:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:59:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 21:59:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:00:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:00:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:01:22 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:01:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:02:32 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:03:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:03:44 EST 2023</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -285,30 +186,6 @@
     <t>DoNotRun</t>
   </si>
   <si>
-    <t>Fri Dec 08 10:46:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:46:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:47:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:47:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:48:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:48:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:49:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Fri Dec 08 10:50:08 EST 2023</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
@@ -337,6 +214,270 @@
   </si>
   <si>
     <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 10:59:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:00:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:00:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:01:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:02:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:02:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:14:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:31:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:31:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:32:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:32:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:33:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:34:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:34:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:35:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:35:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:36:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:36:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:37:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:38:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:38:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:39:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:39:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:40:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:40:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:41:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:42:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:42:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:43:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:43:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:44:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:44:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:45:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:46:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:46:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:47:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:47:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:48:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:48:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:49:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:50:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 11:50:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:21:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:23:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:24:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:24:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:25:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:26:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:26:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:27:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:28:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:30:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:32:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:34:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:35:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:43:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:46:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:47:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:48:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:49:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:56:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:56:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:57:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:58:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:58:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:59:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 17:59:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:00:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:01:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:01:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:02:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:02:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:03:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:37:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:37:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:39:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:40:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:40:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:41:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:43:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:43:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:44:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:45:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 18:45:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 19:03:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 19:04:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 19:08:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 15 19:09:34 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -756,7 +897,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -768,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -779,7 +920,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -791,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -802,7 +943,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -814,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -828,7 +969,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -840,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -854,7 +995,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -866,7 +1007,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -880,7 +1021,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -892,7 +1033,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -915,7 +1056,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -970,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -987,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1004,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1024,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1044,7 +1185,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1061,7 +1202,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1078,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1095,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1112,7 +1253,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1132,7 +1273,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1148,6 +1289,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1155,10 +1302,16 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1166,10 +1319,16 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1177,10 +1336,16 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1188,10 +1353,16 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1199,10 +1370,19 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1210,10 +1390,16 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>113</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1221,10 +1407,16 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1232,7 +1424,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1437,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1501,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1524,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1547,7 +1739,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1570,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1593,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1613,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1636,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1659,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1682,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1705,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1725,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1748,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1771,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1794,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1812,7 +2004,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1820,13 +2018,19 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>133</v>
+      </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1840,7 +2044,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>134</v>
+      </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +2064,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
@@ -1868,7 +2084,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>143</v>
+      </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1876,13 +2098,19 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>141</v>
+      </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
@@ -1890,13 +2118,19 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>142</v>
+      </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
@@ -1904,13 +2138,19 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
@@ -1918,13 +2158,19 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>137</v>
+      </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
@@ -1938,7 +2184,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,13 +2198,22 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1960,13 +2221,19 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1974,13 +2241,19 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
@@ -1994,7 +2267,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>64</v>
+      </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
@@ -2002,13 +2281,19 @@
         <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
@@ -2022,7 +2307,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,7 +2327,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2050,7 +2347,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
@@ -2058,13 +2361,19 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
@@ -2072,13 +2381,19 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
@@ -2086,13 +2401,19 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>71</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
@@ -2100,13 +2421,19 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,7 +2447,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2128,13 +2461,22 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2142,13 +2484,19 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2156,13 +2504,19 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>76</v>
+      </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2176,7 +2530,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2184,13 +2544,19 @@
         <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
       </c>
@@ -2204,7 +2570,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2218,7 +2590,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
       </c>
@@ -2232,7 +2610,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
       </c>
@@ -2240,13 +2624,19 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" t="s">
+        <v>82</v>
+      </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
       </c>
@@ -2254,13 +2644,19 @@
         <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2268,13 +2664,19 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
       </c>
@@ -2282,13 +2684,19 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
       </c>
@@ -2302,7 +2710,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2310,13 +2724,22 @@
         <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
       </c>
@@ -2324,13 +2747,19 @@
         <v>16</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
       </c>
@@ -2338,13 +2767,19 @@
         <v>16</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2412,7 +2847,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,7 +2860,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -2521,7 +2956,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2533,18 +2968,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2561,7 +2996,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2581,7 +3016,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2601,7 +3036,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2664,7 +3099,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2676,18 +3111,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -2704,7 +3139,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2724,7 +3159,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2744,7 +3179,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2768,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
@@ -2804,7 +3239,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D41533F0-B5A4-45AB-A7AD-E04DC7035613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A974864F-A6FC-4FE1-BDF6-AC103C2E8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1275" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="2745" yWindow="2190" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -396,15 +396,6 @@
     <t>Mon Jan 15 17:49:13 EST 2024</t>
   </si>
   <si>
-    <t>Mon Jan 15 17:56:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:56:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:57:33 EST 2024</t>
-  </si>
-  <si>
     <t>Mon Jan 15 17:58:08 EST 2024</t>
   </si>
   <si>
@@ -435,49 +426,58 @@
     <t>Mon Jan 15 18:03:17 EST 2024</t>
   </si>
   <si>
-    <t>Mon Jan 15 18:37:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:37:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:39:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:40:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:40:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:41:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:43:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:43:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:44:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:45:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:45:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 19:03:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 19:04:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 19:08:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 19:09:34 EST 2024</t>
+    <t>Wed Jan 17 13:57:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 13:58:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 13:58:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 13:59:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:00:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:00:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:03:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:04:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:05:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:05:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:06:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:06:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:08:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:13:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:14:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:14:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:15:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Wed Jan 17 14:15:54 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1630,7 +1630,7 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C55"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1693,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1716,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1739,7 +1739,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1762,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1785,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1805,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1851,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1874,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1917,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1940,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1963,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1986,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2029,7 +2029,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2049,7 +2049,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2069,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2089,7 +2089,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2129,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2149,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2169,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2189,7 +2189,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2232,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2252,7 +2252,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2795,6 +2795,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A974864F-A6FC-4FE1-BDF6-AC103C2E8F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82336077-CEE0-4BFF-A3A2-65BE1954549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2745" yWindow="2190" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="2835" yWindow="1890" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -234,9 +234,6 @@
     <t>Mon Jan 15 11:02:39 EST 2024</t>
   </si>
   <si>
-    <t>Mon Jan 15 11:14:02 EST 2024</t>
-  </si>
-  <si>
     <t>Mon Jan 15 11:31:14 EST 2024</t>
   </si>
   <si>
@@ -378,9 +375,6 @@
     <t>Mon Jan 15 17:34:02 EST 2024</t>
   </si>
   <si>
-    <t>Mon Jan 15 17:35:19 EST 2024</t>
-  </si>
-  <si>
     <t>Mon Jan 15 17:43:05 EST 2024</t>
   </si>
   <si>
@@ -456,9 +450,6 @@
     <t>Wed Jan 17 14:05:38 EST 2024</t>
   </si>
   <si>
-    <t>Wed Jan 17 14:06:14 EST 2024</t>
-  </si>
-  <si>
     <t>Wed Jan 17 14:06:49 EST 2024</t>
   </si>
   <si>
@@ -478,6 +469,15 @@
   </si>
   <si>
     <t>Wed Jan 17 14:15:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 20 15:39:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 20 15:46:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Sat Jan 20 15:54:11 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C20"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1094,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1111,7 +1111,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1128,7 +1128,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1145,7 +1145,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1165,7 +1165,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1185,7 +1185,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1202,7 +1202,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1219,7 +1219,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1236,7 +1236,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1253,7 +1253,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1293,7 +1293,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1310,7 +1310,7 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1327,7 +1327,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1344,7 +1344,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1381,7 +1381,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1398,7 +1398,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1629,8 +1629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,7 +1673,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1693,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1716,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1739,7 +1739,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1762,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1785,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1805,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1828,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1851,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1874,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1897,7 +1897,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1917,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1940,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1963,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1986,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2009,7 +2009,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2029,7 +2029,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2049,7 +2049,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2069,7 +2069,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2089,7 +2089,7 @@
         <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2109,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2129,7 +2129,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2149,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2169,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2189,7 +2189,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2212,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2232,7 +2232,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2252,7 +2252,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2272,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2292,7 +2292,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2312,7 +2312,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2332,7 +2332,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2352,7 +2352,7 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2372,7 +2372,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2392,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2412,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2432,7 +2432,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2452,7 +2452,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2475,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2495,7 +2495,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2515,7 +2515,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2535,7 +2535,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2555,7 +2555,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2575,7 +2575,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2595,7 +2595,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2615,7 +2615,7 @@
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2635,7 +2635,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2655,7 +2655,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2675,7 +2675,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2695,7 +2695,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2715,7 +2715,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2738,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -2758,7 +2758,7 @@
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -2778,7 +2778,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
@@ -2957,7 +2957,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2997,7 +2997,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3017,7 +3017,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3037,7 +3037,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3100,7 +3100,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3140,7 +3140,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3160,7 +3160,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3180,7 +3180,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3240,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82336077-CEE0-4BFF-A3A2-65BE1954549E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{15A710D7-B11D-4289-A2D1-FF452E6A6C2B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="1890" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="7" windowHeight="14010" windowWidth="24525" xWindow="1680" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2580"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="212">
   <si>
     <t>Result</t>
   </si>
@@ -216,274 +216,476 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Mon Jan 15 10:59:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:00:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:00:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:01:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:02:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:02:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:31:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:31:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:32:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:32:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:33:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:34:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:34:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:35:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:35:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:36:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:36:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:37:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:38:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:38:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:39:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:39:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:40:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:40:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:41:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:42:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:42:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:43:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:43:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:44:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:44:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:45:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:46:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:46:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:47:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:47:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:48:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:48:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:49:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:50:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 11:50:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:21:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:23:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:24:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:24:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:25:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:26:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:26:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:27:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:28:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:30:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:32:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:34:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:43:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:46:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:47:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:48:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:49:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:58:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:58:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:59:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 17:59:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:00:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:01:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:01:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:02:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:02:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Jan 15 18:03:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 13:57:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 13:58:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 13:58:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 13:59:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:00:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:00:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:03:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:04:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:05:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:05:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:06:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:08:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:13:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:14:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:14:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:15:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Jan 17 14:15:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 20 15:39:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 20 15:46:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Sat Jan 20 15:54:11 EST 2024</t>
+    <t>Thu Jan 25 17:48:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:49:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:50:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:50:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:51:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:51:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:52:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:53:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:53:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:54:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:55:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:55:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:56:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:57:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:57:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:58:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:58:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 17:59:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:01:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:02:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:02:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:03:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:03:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:04:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:05:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:05:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:06:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:07:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:07:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:08:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:08:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:09:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:10:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:10:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:11:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:11:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:12:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:13:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:13:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:14:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:15:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:15:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:16:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:18:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:18:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:19:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:19:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:20:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:21:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:21:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:22:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:22:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:23:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:24:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:24:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:26:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:27:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:27:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:28:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:29:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:29:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:30:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:30:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:31:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:32:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:32:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:33:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:35:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:35:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:36:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:36:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:37:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:38:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:38:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:39:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:40:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:41:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:41:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:42:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:42:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:43:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:44:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 18:44:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:21:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:21:51 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:47:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:47:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:48:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:49:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:49:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:50:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:51:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:51:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:52:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:53:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:53:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:54:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:55:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:55:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:56:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:56:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:57:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:58:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:58:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 22:59:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:00:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:00:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:01:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:01:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:02:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:03:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:03:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:04:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:04:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:05:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:06:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:06:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:07:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:08:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:08:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:09:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:10:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:10:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:11:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:11:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:12:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:13:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:13:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:14:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:15:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:15:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:16:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:16:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:17:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:18:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:18:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:19:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:19:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:20:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:21:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:21:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:22:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:23:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:23:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:24:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:24:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:25:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:26:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:26:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:27:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:28:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:28:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:29:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Jan 25 23:29:53 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,19 +728,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -555,10 +757,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -593,7 +795,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -645,7 +847,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -756,21 +958,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -787,7 +989,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -839,15 +1041,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -855,15 +1057,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1043,8 +1245,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1052,21 +1254,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,7 +1296,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1111,7 +1313,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1128,7 +1330,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1145,7 +1347,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1165,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1185,7 +1387,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1202,7 +1404,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1219,7 +1421,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1236,7 +1438,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1253,7 +1455,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>152</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1273,7 +1475,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1293,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1307,10 +1509,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1319,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1327,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1336,7 +1538,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,7 +1546,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1353,15 +1555,18 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1370,18 +1575,15 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1390,15 +1592,15 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1407,28 +1609,11 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1436,8 +1621,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1445,15 +1630,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1618,7 +1803,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1626,23 +1811,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:G55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C55"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1673,7 +1858,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1693,7 +1878,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1716,7 +1901,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1739,7 +1924,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1762,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1785,7 +1970,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1805,7 +1990,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1828,7 +2013,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>168</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1851,7 +2036,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1874,7 +2059,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1897,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>171</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1917,7 +2102,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1940,7 +2125,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1963,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1986,7 +2171,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2009,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2029,7 +2214,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2049,7 +2234,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2069,7 +2254,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2086,10 +2271,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2098,7 +2283,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
@@ -2109,7 +2294,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2118,7 +2303,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
@@ -2129,7 +2314,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2138,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
@@ -2149,7 +2334,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2158,7 +2343,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
@@ -2169,7 +2354,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2178,18 +2363,21 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2198,21 +2386,18 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2221,7 +2406,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>18</v>
@@ -2232,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2241,7 +2426,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>18</v>
@@ -2252,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2261,10 +2446,10 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2272,7 +2457,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2281,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>30</v>
@@ -2292,7 +2477,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2301,7 +2486,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>30</v>
@@ -2312,7 +2497,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2321,7 +2506,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>30</v>
@@ -2332,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2341,7 +2526,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>30</v>
@@ -2349,10 +2534,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2361,7 +2546,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>30</v>
@@ -2372,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2381,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>30</v>
@@ -2392,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>195</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2401,7 +2586,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>30</v>
@@ -2412,7 +2597,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>196</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2421,18 +2606,21 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2441,7 +2629,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>30</v>
@@ -2452,7 +2640,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2461,21 +2649,18 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2484,7 +2669,7 @@
         <v>16</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>30</v>
@@ -2495,7 +2680,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2504,10 +2689,10 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2515,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2524,10 +2709,10 @@
         <v>16</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2535,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2544,7 +2729,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>31</v>
@@ -2555,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2564,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>31</v>
@@ -2575,7 +2760,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2584,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>31</v>
@@ -2595,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2604,7 +2789,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>31</v>
@@ -2612,10 +2797,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2624,7 +2809,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>31</v>
@@ -2635,7 +2820,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2644,7 +2829,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>31</v>
@@ -2655,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2664,18 +2849,21 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2684,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>31</v>
@@ -2695,7 +2883,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2704,7 +2892,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>31</v>
@@ -2715,7 +2903,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2724,78 +2912,15 @@
         <v>16</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>35</v>
-      </c>
-      <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>35</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2803,8 +2928,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2812,15 +2937,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2907,7 +3032,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2915,21 +3040,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2957,7 +3082,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2997,7 +3122,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3017,7 +3142,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3037,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3052,27 +3177,60 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,7 +3258,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3140,7 +3298,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3160,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3180,7 +3338,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3195,27 +3353,60 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3431,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3252,7 +3443,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{15A710D7-B11D-4289-A2D1-FF452E6A6C2B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D1F86-E0C9-40DB-9D59-34527CD0A185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="14010" windowWidth="24525" xWindow="1680" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="142">
   <si>
     <t>Result</t>
   </si>
@@ -234,213 +234,6 @@
     <t>Thu Jan 25 17:51:54 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 17:52:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:53:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:53:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:54:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:55:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:55:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:56:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:57:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:57:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:58:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:58:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:59:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:01:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:02:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:02:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:03:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:03:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:04:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:05:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:05:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:06:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:07:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:07:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:08:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:08:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:09:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:10:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:10:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:11:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:11:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:12:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:13:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:13:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:14:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:15:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:15:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:16:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:18:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:18:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:19:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:19:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:20:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:21:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:21:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:22:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:22:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:23:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:24:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:24:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:26:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:27:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:27:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:28:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:29:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:29:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:30:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:30:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:31:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:32:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:32:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:33:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:35:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:35:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:36:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:36:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:37:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:38:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:38:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:39:24 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 18:40:36 EST 2024</t>
   </si>
   <si>
@@ -465,15 +258,9 @@
     <t>Thu Jan 25 18:44:51 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 22:21:13 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 22:21:51 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Thu Jan 25 22:47:17 EST 2024</t>
   </si>
   <si>
@@ -679,13 +466,15 @@
   </si>
   <si>
     <t>Thu Jan 25 23:29:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Jan 29 12:02:47 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,19 +517,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -757,10 +546,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -795,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -847,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -958,21 +747,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -989,7 +778,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1041,15 +830,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1057,15 +846,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1245,8 +1034,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1254,8 +1043,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
@@ -1263,12 +1052,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1296,7 +1085,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1313,7 +1102,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1330,7 +1119,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1347,7 +1136,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1367,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1387,7 +1176,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1404,7 +1193,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1421,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1438,7 +1227,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1455,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1475,7 +1264,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1495,7 +1284,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1512,7 +1301,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1529,7 +1318,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>156</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1546,7 +1335,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1566,7 +1355,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1583,7 +1372,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1600,7 +1389,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1613,7 +1402,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1621,8 +1410,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1630,15 +1419,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1803,7 +1592,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1811,23 +1600,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1858,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1878,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1901,7 +1690,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1924,7 +1713,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1947,7 +1736,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1970,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1990,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2013,7 +1802,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2036,7 +1825,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2059,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2082,7 +1871,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2102,7 +1891,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2125,7 +1914,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2148,7 +1937,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2171,7 +1960,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2194,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2214,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2234,7 +2023,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2254,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2274,7 +2063,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2294,7 +2083,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2314,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2334,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2354,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2377,7 +2166,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2397,7 +2186,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2417,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2437,7 +2226,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2457,7 +2246,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2477,7 +2266,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2497,7 +2286,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2517,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2537,7 +2326,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2557,7 +2346,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2577,7 +2366,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2597,7 +2386,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2620,7 +2409,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2640,7 +2429,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2660,7 +2449,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2680,7 +2469,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2700,7 +2489,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2720,7 +2509,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2740,7 +2529,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2760,7 +2549,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>204</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2780,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2800,7 +2589,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2820,7 +2609,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>207</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2840,7 +2629,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>208</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2863,7 +2652,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2883,7 +2672,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2903,7 +2692,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2919,8 +2708,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2928,8 +2717,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2937,15 +2726,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +2821,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3040,8 +2829,184 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7:C9"/>
@@ -3049,12 +3014,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3082,7 +3047,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3102,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>46</v>
@@ -3122,7 +3087,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3142,7 +3107,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3162,7 +3127,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3211,189 +3176,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3401,12 +3190,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3431,7 +3220,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3448,7 +3237,7 @@
         <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>
@@ -3458,6 +3247,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6D1F86-E0C9-40DB-9D59-34527CD0A185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD7D18-899A-4CB6-A403-C6A302C4CA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="1215" yWindow="1170" windowWidth="24525" windowHeight="14010" activeTab="5" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2832,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD7D18-899A-4CB6-A403-C6A302C4CA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99476503-C550-4FCD-B86F-869D1855C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1215" yWindow="1170" windowWidth="24525" windowHeight="14010" activeTab="5" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="143">
   <si>
     <t>Result</t>
   </si>
@@ -234,12 +234,6 @@
     <t>Thu Jan 25 17:51:54 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 18:40:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:41:09 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 18:41:42 EST 2024</t>
   </si>
   <si>
@@ -258,9 +252,6 @@
     <t>Thu Jan 25 18:44:51 EST 2024</t>
   </si>
   <si>
-    <t>Thu Jan 25 22:21:51 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Jan 25 22:47:17 EST 2024</t>
   </si>
   <si>
@@ -468,7 +459,19 @@
     <t>Thu Jan 25 23:29:53 EST 2024</t>
   </si>
   <si>
-    <t>Mon Jan 29 12:02:47 EST 2024</t>
+    <t>Fri Feb 02 16:27:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 16:28:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 16:59:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:00:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 17:00:55 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1088,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1102,7 +1105,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1119,7 +1122,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1136,7 +1139,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1156,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1176,7 +1179,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1193,7 +1196,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1210,7 +1213,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1227,7 +1230,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1244,7 +1247,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1264,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1284,7 +1287,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1301,7 +1304,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1318,7 +1321,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1335,7 +1338,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1355,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1372,7 +1375,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1389,7 +1392,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1603,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
@@ -1647,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1667,7 +1670,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1690,7 +1693,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1713,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1736,7 +1739,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1759,7 +1762,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1779,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1802,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1825,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1848,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1871,7 +1874,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1891,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1914,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1937,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1960,7 +1963,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1983,7 +1986,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2003,7 +2006,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2023,7 +2026,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2043,7 +2046,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2063,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2083,7 +2086,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2103,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2123,7 +2126,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2143,7 +2146,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2166,7 +2169,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2186,7 +2189,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2206,7 +2209,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2226,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2246,7 +2249,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2266,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2286,7 +2289,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2306,7 +2309,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2326,7 +2329,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2346,7 +2349,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2366,7 +2369,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2386,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2409,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2429,7 +2432,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2449,7 +2452,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2469,7 +2472,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2489,7 +2492,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2509,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2529,7 +2532,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2549,7 +2552,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2569,7 +2572,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2589,7 +2592,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2609,7 +2612,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2629,7 +2632,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2652,7 +2655,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2672,7 +2675,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2692,7 +2695,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2832,8 +2835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2874,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2911,7 +2914,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2931,7 +2934,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2951,7 +2954,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2967,6 +2970,15 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2978,6 +2990,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
@@ -2989,6 +3004,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
@@ -3006,10 +3024,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="A7" sqref="A7:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,7 +3065,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3087,7 +3105,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3107,7 +3125,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3127,7 +3145,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3139,39 +3157,6 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3184,7 +3169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3220,7 +3205,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3234,10 +3219,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>139</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>14</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99476503-C550-4FCD-B86F-869D1855C24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{99476503-C550-4FCD-B86F-869D1855C24D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2325" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="7" windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2325"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="232">
   <si>
     <t>Result</t>
   </si>
@@ -472,12 +472,280 @@
   </si>
   <si>
     <t>Fri Feb 02 17:00:55 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:36:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:37:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:38:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:38:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:39:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:39:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:40:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:40:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:41:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:42:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:42:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:43:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:43:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:44:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:44:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:45:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:46:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:46:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:47:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:47:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:48:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:48:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:49:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:50:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:50:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:51:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:51:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:52:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:52:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:53:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:54:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:54:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:55:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:55:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:56:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:56:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:57:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:57:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:58:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:58:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:59:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:00:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:00:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:01:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:01:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:02:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:02:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:03:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:03:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:04:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:05:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:05:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:06:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:06:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:07:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:08:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:09:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:09:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:10:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:10:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:11:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:11:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:12:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:12:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:13:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:14:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:14:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:15:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:15:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:16:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:16:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:17:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:17:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:18:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:19:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:19:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:20:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:20:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:21:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:21:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:22:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:23:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:23:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:24:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:24:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:25:33 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -520,19 +788,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -549,10 +817,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -587,7 +855,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -639,7 +907,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -750,21 +1018,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -781,7 +1049,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -833,15 +1101,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -849,15 +1117,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -891,7 +1159,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -914,7 +1182,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -937,7 +1205,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -963,7 +1231,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -989,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1015,7 +1283,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1037,8 +1305,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1046,8 +1314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1055,12 +1323,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1088,7 +1356,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1105,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1122,7 +1390,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1139,7 +1407,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1159,7 +1427,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1179,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1196,7 +1464,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1213,7 +1481,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1230,7 +1498,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1247,7 +1515,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1267,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1287,7 +1555,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1304,7 +1572,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1321,7 +1589,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1338,7 +1606,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>164</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1358,7 +1626,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1375,7 +1643,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1392,7 +1660,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1405,7 +1673,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1413,8 +1681,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1422,15 +1690,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1595,7 +1863,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1603,8 +1871,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:G52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A45" sqref="A45:XFD45"/>
@@ -1612,14 +1880,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1650,7 +1918,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1670,7 +1938,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1693,7 +1961,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1716,7 +1984,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1739,7 +2007,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>172</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1762,7 +2030,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1782,7 +2050,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1805,7 +2073,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1828,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1851,7 +2119,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1874,7 +2142,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1894,7 +2162,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1917,7 +2185,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1940,7 +2208,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1963,7 +2231,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1986,7 +2254,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2006,7 +2274,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2026,7 +2294,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2046,7 +2314,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2066,7 +2334,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2086,7 +2354,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2106,7 +2374,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>189</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2126,7 +2394,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2146,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2169,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>192</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2189,7 +2457,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2209,7 +2477,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>194</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2229,7 +2497,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2249,7 +2517,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>196</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2269,7 +2537,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>197</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2289,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2309,7 +2577,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2329,7 +2597,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2349,7 +2617,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2369,7 +2637,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>202</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2389,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>203</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2412,7 +2680,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2432,7 +2700,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2452,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>206</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2472,7 +2740,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2492,7 +2760,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2512,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>209</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2532,7 +2800,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>210</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2552,7 +2820,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2572,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2592,7 +2860,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2612,7 +2880,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2632,7 +2900,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>215</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2655,7 +2923,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>216</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2675,7 +2943,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2695,7 +2963,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2711,8 +2979,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2720,8 +2988,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2729,15 +2997,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2824,7 +3092,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2832,8 +3100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -2841,12 +3109,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,7 +3142,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2914,7 +3182,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2934,7 +3202,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2954,7 +3222,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2974,7 +3242,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2990,6 +3258,12 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>226</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
@@ -3004,6 +3278,12 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
@@ -3018,13 +3298,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3032,12 +3312,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,7 +3345,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3105,7 +3385,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>229</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3125,7 +3405,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3145,7 +3425,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>231</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3161,13 +3441,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3175,12 +3455,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3205,7 +3485,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3222,7 +3502,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3235,6 +3515,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{99476503-C550-4FCD-B86F-869D1855C24D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{DDF46756-9B7B-4B99-A1F5-E75EA3A3F1D5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="7" windowHeight="14010" windowWidth="24525" xWindow="2220" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2325"/>
+    <workbookView activeTab="3" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="198">
   <si>
     <t>Result</t>
   </si>
@@ -216,529 +216,427 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Thu Jan 25 17:48:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:49:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:50:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:50:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:51:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 17:51:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:41:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:42:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:42:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:43:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:44:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 18:44:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:47:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:47:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:48:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:49:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:49:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:50:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:51:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:51:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:52:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:53:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:53:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:54:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:55:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:55:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:56:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:56:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:57:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:58:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:58:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 22:59:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:00:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:00:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:01:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:01:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:02:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:03:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:03:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:04:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:04:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:05:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:06:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:06:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:07:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:08:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:08:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:09:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:10:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:10:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:11:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:11:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:12:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:13:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:13:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:14:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:15:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:15:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:16:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:16:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:17:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:18:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:18:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:19:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:19:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:20:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:21:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:21:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:22:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:23:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:23:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:24:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:24:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:25:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:26:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:26:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:27:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:28:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:28:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:29:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Jan 25 23:29:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 16:27:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 16:28:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 16:59:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:00:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 17:00:55 EST 2024</t>
+    <t>Fri Feb 02 21:36:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:37:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:38:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:38:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:39:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:39:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:40:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:40:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:41:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:42:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:42:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:43:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:43:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:44:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:44:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:45:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:46:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:46:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:47:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:47:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:48:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:48:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:49:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:50:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:50:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:51:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:51:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:52:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:52:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:53:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:54:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:54:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:55:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:55:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:56:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:56:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:57:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:57:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:58:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:58:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 21:59:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:00:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:00:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:01:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:01:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:02:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:02:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:03:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:03:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:04:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:05:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:05:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:06:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:06:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:07:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:07:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:08:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:09:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:09:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:10:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:10:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:11:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:11:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:12:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:12:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:13:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:14:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:14:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:15:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:15:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:16:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:16:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:17:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:17:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:18:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:19:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:19:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:20:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:20:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:21:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:21:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:22:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:23:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:23:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:24:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:24:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Feb 02 22:25:33 EST 2024</t>
+  </si>
+  <si>
+    <t>CRN</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Fri Feb 02 21:36:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:37:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:38:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:38:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:39:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:39:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:40:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:40:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:41:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:42:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:42:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:43:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:43:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:44:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:44:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:45:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:46:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:46:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:47:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:47:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:48:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:48:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:49:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:50:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:50:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:51:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:51:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:52:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:52:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:53:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:54:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:54:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:55:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:55:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:56:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:56:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:57:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:57:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:58:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:58:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:59:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:00:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:00:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:01:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:01:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:02:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:02:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:03:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:03:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:04:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:05:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:05:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:06:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:06:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:07:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:08:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:09:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:09:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:10:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:10:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:11:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:11:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:12:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:12:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:13:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:14:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:14:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:15:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:15:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:16:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:16:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:17:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:17:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:18:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:19:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:19:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:20:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:20:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:21:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:21:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:22:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:23:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:23:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:24:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:24:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:25:33 EST 2024</t>
+    <t>Sun Feb 18 13:26:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:27:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:28:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:28:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:29:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:29:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:30:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:30:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:31:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:32:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:32:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:33:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:33:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:34:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:34:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:35:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:36:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:36:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:37:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:37:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:38:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:39:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:39:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:40:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:40:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:41:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:41:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:42:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:43:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:43:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:44:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:44:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:45:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:46:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:46:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:47:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:47:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:48:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:48:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:49:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:50:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:50:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:51:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:51:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:52:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:53:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:53:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:54:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:54:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:55:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Sun Feb 18 13:56:32 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1057,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1182,7 +1080,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1205,7 +1103,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1231,7 +1129,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1257,7 +1155,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1283,7 +1181,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1356,7 +1254,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1373,7 +1271,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1390,7 +1288,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1407,7 +1305,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1427,7 +1325,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1447,7 +1345,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1464,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1481,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1498,7 +1396,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1515,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>159</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1535,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1555,7 +1453,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1572,7 +1470,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1589,7 +1487,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1606,7 +1504,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1626,7 +1524,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1643,7 +1541,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1660,7 +1558,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1872,10 +1770,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,7 +1788,7 @@
     <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1912,13 +1810,16 @@
       <c r="G1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1933,12 +1834,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1956,12 +1857,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1979,12 +1880,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2002,12 +1903,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2025,12 +1926,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2045,12 +1946,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2068,12 +1969,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2091,12 +1992,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2114,12 +2015,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2137,12 +2038,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2157,12 +2058,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2180,12 +2081,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2203,12 +2104,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2226,12 +2127,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2249,12 +2150,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2266,15 +2167,18 @@
         <v>48</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2286,15 +2190,18 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2306,15 +2213,15 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2329,12 +2236,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2346,15 +2253,15 @@
         <v>50</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2366,15 +2273,18 @@
         <v>56</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2386,15 +2296,15 @@
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2406,15 +2316,15 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2426,18 +2336,18 @@
         <v>52</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2449,15 +2359,15 @@
         <v>53</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2472,12 +2382,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2489,15 +2399,18 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2509,15 +2422,18 @@
         <v>48</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2529,15 +2445,18 @@
         <v>29</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2549,15 +2468,15 @@
         <v>25</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2572,12 +2491,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2589,15 +2508,15 @@
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2609,15 +2528,18 @@
         <v>56</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2629,15 +2551,15 @@
         <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2649,15 +2571,15 @@
         <v>27</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2669,18 +2591,18 @@
         <v>52</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2692,15 +2614,15 @@
         <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2715,12 +2637,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2732,15 +2654,18 @@
         <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2752,15 +2677,18 @@
         <v>48</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2772,15 +2700,18 @@
         <v>29</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2792,15 +2723,15 @@
         <v>25</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2815,12 +2746,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2832,15 +2763,15 @@
         <v>50</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2852,15 +2783,18 @@
         <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2872,15 +2806,15 @@
         <v>51</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2892,15 +2826,15 @@
         <v>27</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2912,18 +2846,18 @@
         <v>52</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2935,15 +2869,15 @@
         <v>53</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2958,12 +2892,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2975,7 +2909,10 @@
         <v>28</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -3104,7 +3041,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,7 +3079,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3182,7 +3119,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3202,7 +3139,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3222,7 +3159,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3242,7 +3179,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3254,7 +3191,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3262,7 +3199,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>226</v>
+        <v>139</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3274,7 +3211,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,7 +3219,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>140</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3294,7 +3231,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3345,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3385,7 +3322,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3405,7 +3342,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3425,7 +3362,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3449,7 +3386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3485,7 +3422,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3502,7 +3439,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>220</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{DDF46756-9B7B-4B99-A1F5-E75EA3A3F1D5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92557AC-8273-486B-9CA8-4DDCDDFBE5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="146">
   <si>
     <t>Result</t>
   </si>
@@ -288,159 +288,6 @@
     <t>Fri Feb 02 21:50:07 EST 2024</t>
   </si>
   <si>
-    <t>Fri Feb 02 21:50:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:51:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:51:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:52:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:52:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:53:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:54:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:54:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:55:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:55:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:56:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:56:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:57:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:57:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:58:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:58:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:59:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:00:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:00:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:01:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:01:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:02:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:02:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:03:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:03:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:04:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:05:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:05:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:06:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:06:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:07:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:07:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:08:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:09:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:09:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:10:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:10:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:11:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:11:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:12:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:12:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:13:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:14:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:14:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:15:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:15:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:16:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:16:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:17:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:17:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:18:27 EST 2024</t>
-  </si>
-  <si>
     <t>Fri Feb 02 22:19:00 EST 2024</t>
   </si>
   <si>
@@ -481,9 +328,6 @@
   </si>
   <si>
     <t>CRN</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Sun Feb 18 13:26:48 EST 2024</t>
@@ -643,7 +487,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -686,19 +529,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -715,10 +558,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -753,7 +596,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -805,7 +648,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -916,21 +759,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -947,7 +790,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -999,15 +842,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1015,15 +858,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1203,8 +1046,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1212,8 +1055,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1221,12 +1064,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,7 +1414,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1579,8 +1422,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1588,15 +1431,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1761,7 +1604,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1769,23 +1612,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,7 +1654,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1819,7 +1662,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1839,7 +1682,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1862,7 +1705,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1885,7 +1728,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1908,7 +1751,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1931,7 +1774,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1951,7 +1794,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1974,7 +1817,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1997,7 +1840,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2020,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2043,7 +1886,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2063,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2086,7 +1929,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2109,7 +1952,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2132,7 +1975,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2155,7 +1998,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2178,7 +2021,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2201,7 +2044,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2221,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2241,7 +2084,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2255,13 +2098,16 @@
       <c r="F21" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="H21" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2284,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2304,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2318,13 +2164,16 @@
       <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2341,13 +2190,16 @@
       <c r="G25" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2361,13 +2213,16 @@
       <c r="F26" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2379,7 +2234,7 @@
         <v>54</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2387,7 +2242,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2410,7 +2265,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2433,7 +2288,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2456,7 +2311,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2476,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2496,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2510,13 +2365,16 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2539,7 +2397,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2559,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2573,13 +2431,16 @@
       <c r="F36" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H36" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2596,13 +2457,16 @@
       <c r="G37" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H37" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2616,13 +2480,16 @@
       <c r="F38" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H38" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2634,7 +2501,7 @@
         <v>54</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2642,7 +2509,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2665,7 +2532,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2688,7 +2555,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2711,7 +2578,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2731,7 +2598,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2751,7 +2618,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2765,13 +2632,16 @@
       <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H45" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2794,7 +2664,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2814,7 +2684,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2828,13 +2698,16 @@
       <c r="F48" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="H48" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2851,13 +2724,16 @@
       <c r="G49" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="H49" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2870,6 +2746,9 @@
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2877,7 +2756,7 @@
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2889,7 +2768,7 @@
         <v>54</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,7 +2776,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2916,8 +2795,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2925,8 +2804,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2934,15 +2813,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3029,7 +2908,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3037,8 +2916,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -3046,12 +2925,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,7 +2958,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3119,7 +2998,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3139,7 +3018,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3159,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3179,7 +3058,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3199,7 +3078,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3219,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3235,13 +3114,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3249,12 +3128,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3282,7 +3161,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3322,7 +3201,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3342,7 +3221,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3362,7 +3241,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3378,13 +3257,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3392,12 +3271,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,7 +3301,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3439,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3452,6 +3331,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92557AC-8273-486B-9CA8-4DDCDDFBE5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569C315-D4B6-40C8-AB51-A92A646CDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1605" windowWidth="29040" windowHeight="17640" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="4035" yWindow="90" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="152">
   <si>
     <t>Result</t>
   </si>
@@ -330,157 +330,175 @@
     <t>CRN</t>
   </si>
   <si>
-    <t>Sun Feb 18 13:26:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:27:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:28:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:28:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:29:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:29:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:30:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:30:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:31:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:32:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:32:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:33:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:33:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:34:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:34:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:35:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:36:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:36:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:37:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:37:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:38:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:39:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:39:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:40:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:40:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:41:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:41:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:42:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:43:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:43:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:44:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:44:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:45:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:46:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:46:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:47:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:47:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:48:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:48:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:49:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:50:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:50:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:51:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:51:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:52:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:53:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:53:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:54:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:54:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:55:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Sun Feb 18 13:56:32 EST 2024</t>
+    <t>Mon Mar 04 23:15:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:16:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:16:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:17:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:18:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:18:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:19:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:19:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:20:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:21:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:21:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:22:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:22:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:23:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:23:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:25:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:27:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:28:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:30:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:31:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:33:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:34:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:35:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:36:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:38:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:39:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:40:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:41:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:42:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:43:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:44:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:45:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:46:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:48:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:49:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:50:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:51:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:52:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:54:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:55:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:55:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:57:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:58:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Mon Mar 04 23:59:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 00:00:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 00:01:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 00:02:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 00:03:58 EST 2024</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:06:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:06:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:07:24 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1613,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1628,10 +1646,12 @@
     <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,8 +1676,11 @@
       <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +1700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1700,7 +1723,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1723,7 +1746,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1746,7 +1769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1769,7 +1792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1789,7 +1812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1812,7 +1835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1835,7 +1858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1858,7 +1881,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1881,7 +1904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1901,7 +1924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1924,7 +1947,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1947,7 +1970,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1970,7 +1993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1993,12 +2016,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2015,13 +2038,16 @@
       <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2038,13 +2064,16 @@
       <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2058,13 +2087,19 @@
       <c r="F19" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2079,12 +2114,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2101,13 +2136,16 @@
       <c r="H21" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2124,13 +2162,16 @@
       <c r="H22" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2144,13 +2185,16 @@
       <c r="F23" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2167,13 +2211,16 @@
       <c r="H24" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2193,13 +2240,16 @@
       <c r="H25" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2216,13 +2266,16 @@
       <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2236,13 +2289,19 @@
       <c r="F27" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2259,13 +2318,16 @@
       <c r="H28" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2282,13 +2344,16 @@
       <c r="H29" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2305,13 +2370,16 @@
       <c r="H30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2325,13 +2393,19 @@
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2346,12 +2420,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2368,13 +2442,16 @@
       <c r="H33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2391,13 +2468,16 @@
       <c r="H34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2411,13 +2491,16 @@
       <c r="F35" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2434,13 +2517,16 @@
       <c r="H36" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2460,13 +2546,16 @@
       <c r="H37" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2483,13 +2572,16 @@
       <c r="H38" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2503,13 +2595,19 @@
       <c r="F39" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2526,13 +2624,16 @@
       <c r="H40" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2549,13 +2650,16 @@
       <c r="H41" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2572,13 +2676,16 @@
       <c r="H42" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2592,13 +2699,19 @@
       <c r="F43" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2613,12 +2726,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2635,13 +2748,16 @@
       <c r="H45" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2658,13 +2774,16 @@
       <c r="H46" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2678,13 +2797,16 @@
       <c r="F47" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2701,13 +2823,16 @@
       <c r="H48" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2727,13 +2852,16 @@
       <c r="H49" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2750,13 +2878,16 @@
       <c r="H50" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2770,13 +2901,19 @@
       <c r="F51" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2792,6 +2929,9 @@
       </c>
       <c r="H52" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3070,7 +3210,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3090,7 +3230,7 @@
         <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3110,7 +3250,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3569C315-D4B6-40C8-AB51-A92A646CDBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{EEB077F8-7442-4A47-B52A-5B1C7DDFBC1D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="90" windowWidth="24525" windowHeight="14010" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="14010" windowWidth="24525" xWindow="-24870" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="3000"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="204">
   <si>
     <t>Result</t>
   </si>
@@ -499,12 +499,169 @@
   </si>
   <si>
     <t>Tue Mar 05 22:07:24 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:28:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:29:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:29:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:30:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:31:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:31:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:32:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:32:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:33:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:33:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:34:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:35:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:35:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:36:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:36:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:37:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:37:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:38:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:39:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:39:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:40:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:40:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:41:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:41:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:42:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:43:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:43:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:44:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:44:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:45:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:46:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:46:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:47:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:47:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:48:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:49:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:49:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:50:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:50:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:51:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:52:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:52:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:53:12 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:53:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:54:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:54:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:55:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:56:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:56:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:57:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Mar 05 22:57:52 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -547,19 +704,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -576,10 +733,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -614,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -666,7 +823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -777,21 +934,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -808,7 +965,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -860,15 +1017,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -876,15 +1033,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,8 +1221,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1073,8 +1230,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1082,12 +1239,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1432,7 +1589,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1440,8 +1597,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C7"/>
@@ -1449,15 +1606,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,7 +1779,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1630,25 +1787,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,7 +1842,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1705,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1728,7 +1885,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1751,7 +1908,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1774,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1797,7 +1954,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1817,7 +1974,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1840,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1863,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1886,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1909,7 +2066,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1929,7 +2086,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1952,7 +2109,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>165</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1975,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1998,7 +2155,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>167</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2021,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2044,10 +2201,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2070,10 +2227,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2099,7 +2256,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2116,10 +2273,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2142,10 +2299,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2171,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2191,10 +2348,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2217,10 +2374,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2246,10 +2403,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2272,10 +2429,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2298,10 +2455,10 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2324,10 +2481,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2350,10 +2507,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2376,10 +2533,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2405,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2422,10 +2579,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2448,10 +2605,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2477,7 +2634,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>186</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2497,10 +2654,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2523,10 +2680,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2552,10 +2709,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2578,10 +2735,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2604,10 +2761,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2630,10 +2787,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2656,10 +2813,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2682,10 +2839,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2711,7 +2868,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2728,10 +2885,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>196</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2754,10 +2911,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>197</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2783,7 +2940,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2803,10 +2960,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2829,10 +2986,10 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2858,10 +3015,10 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2884,10 +3041,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>202</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2910,10 +3067,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2935,8 +3092,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2944,8 +3101,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2953,15 +3110,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +3205,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3056,8 +3213,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -3065,12 +3222,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3254,13 +3411,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD9"/>
@@ -3268,12 +3425,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,13 +3554,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3411,12 +3568,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3471,6 +3628,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="292">
   <si>
     <t>Result</t>
   </si>
@@ -655,6 +655,270 @@
   </si>
   <si>
     <t>Tue Mar 05 22:57:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:31:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:32:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:33:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:33:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:34:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:34:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:35:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:36:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:36:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:37:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:37:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:38:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:39:06 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:39:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:40:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:40:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:41:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:42:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:42:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:43:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:43:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:44:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:45:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:45:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:46:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:46:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:47:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:48:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:48:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:49:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:49:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:50:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:50:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:51:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:52:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:52:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:53:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:53:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:54:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:55:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:55:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:56:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:56:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:57:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:58:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:58:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:59:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 22:59:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:00:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:01:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:01:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:02:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:02:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:03:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:04:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:04:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:05:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:06:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:06:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:07:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:07:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:08:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:09:08 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:09:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:10:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:11:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:11:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:12:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:12:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:13:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:14:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:14:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:15:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:15:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:16:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:17:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:17:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:18:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:18:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:19:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:19:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:20:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:20:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:21:25 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:21:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:22:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:23:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Mar 08 23:23:52 EST 2024</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1339,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1098,7 +1362,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1121,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1147,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1173,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1199,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1272,7 +1536,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1289,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1306,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>212</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1323,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1343,7 +1607,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1363,7 +1627,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>215</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1380,7 +1644,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>216</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1397,7 +1661,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1414,7 +1678,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>218</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1431,7 +1695,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1451,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1471,7 +1735,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1488,7 +1752,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>222</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1505,7 +1769,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1522,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1542,7 +1806,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1559,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1576,7 +1840,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>227</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1842,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1862,7 +2126,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1885,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1908,7 +2172,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1931,7 +2195,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1954,7 +2218,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1974,7 +2238,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1997,7 +2261,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2020,7 +2284,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>236</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2043,7 +2307,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>237</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2066,7 +2330,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2086,7 +2350,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2109,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2132,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2155,7 +2419,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2178,7 +2442,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>243</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2204,7 +2468,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2230,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>245</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2256,7 +2520,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2276,7 +2540,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2302,7 +2566,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2328,7 +2592,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>249</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2351,7 +2615,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2377,7 +2641,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2406,7 +2670,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2432,7 +2696,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2458,7 +2722,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>254</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2484,7 +2748,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>255</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2510,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>256</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2536,7 +2800,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>182</v>
+        <v>257</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2562,7 +2826,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2582,7 +2846,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>259</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2608,7 +2872,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>185</v>
+        <v>260</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2634,7 +2898,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>261</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2657,7 +2921,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>262</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2683,7 +2947,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2712,7 +2976,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2738,7 +3002,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>190</v>
+        <v>265</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2764,7 +3028,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2790,7 +3054,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2816,7 +3080,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2842,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2868,7 +3132,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2888,7 +3152,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2914,7 +3178,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>197</v>
+        <v>272</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2940,7 +3204,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2963,7 +3227,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>199</v>
+        <v>274</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2989,7 +3253,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3018,7 +3282,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>276</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3044,7 +3308,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>202</v>
+        <v>277</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3070,7 +3334,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>278</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3255,7 +3519,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>281</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3295,7 +3559,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3315,7 +3579,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>283</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3335,7 +3599,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>284</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3355,7 +3619,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3375,7 +3639,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>286</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3395,7 +3659,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3458,7 +3722,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3498,7 +3762,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3518,7 +3782,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3538,7 +3802,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3598,7 +3862,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3615,7 +3879,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>280</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{EEB077F8-7442-4A47-B52A-5B1C7DDFBC1D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379270B4-66F8-40E3-8877-93DC12F60EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="14010" windowWidth="24525" xWindow="-24870" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="3000"/>
+    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" activeTab="2" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="151">
   <si>
     <t>Result</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Tue Oct 31 18:01:50 EDT 2023</t>
   </si>
   <si>
-    <t>DONOTRUN</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -216,264 +213,9 @@
     <t>Sales and Use Tax</t>
   </si>
   <si>
-    <t>Fri Feb 02 21:36:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:37:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:38:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:38:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:39:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:39:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:40:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:40:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:41:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:42:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:42:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:43:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:43:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:44:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:44:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:45:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:46:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:46:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:47:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:47:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:48:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:48:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:49:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 21:50:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:19:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:19:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:20:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:20:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:21:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:21:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:22:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:23:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:23:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:24:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:24:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Feb 02 22:25:33 EST 2024</t>
-  </si>
-  <si>
     <t>CRN</t>
   </si>
   <si>
-    <t>Mon Mar 04 23:15:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:16:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:16:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:17:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:18:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:18:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:19:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:19:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:20:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:21:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:21:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:22:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:22:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:23:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:23:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:25:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:27:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:28:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:30:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:31:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:33:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:34:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:35:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:36:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:38:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:39:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:40:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:41:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:42:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:43:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:44:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:45:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:46:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:48:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:49:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:50:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:51:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:52:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:54:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:55:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:55:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:57:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:58:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Mon Mar 04 23:59:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 00:00:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 00:01:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 00:02:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 00:03:58 EST 2024</t>
-  </si>
-  <si>
     <t>February</t>
   </si>
   <si>
@@ -490,171 +232,6 @@
   </si>
   <si>
     <t>June</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:06:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:06:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:07:24 EST 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:28:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:29:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:29:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:30:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:31:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:31:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:32:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:32:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:33:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:33:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:34:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:35:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:35:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:36:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:36:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:37:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:37:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:38:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:39:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:39:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:40:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:40:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:41:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:41:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:42:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:43:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:43:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:44:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:44:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:45:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:46:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:46:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:47:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:47:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:48:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:49:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:49:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:50:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:50:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:51:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:52:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:52:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:53:12 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:53:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:54:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:54:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:55:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:56:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:56:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:57:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Mar 05 22:57:52 EST 2024</t>
   </si>
   <si>
     <t>Fri Mar 08 22:31:55 EST 2024</t>
@@ -925,11 +502,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -968,19 +550,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -997,10 +579,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1035,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1087,7 +669,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1198,21 +780,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1229,7 +811,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1281,15 +863,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1297,15 +879,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1339,7 +921,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1351,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -1362,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1374,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1385,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1397,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1411,7 +993,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1423,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1437,7 +1019,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>208</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1449,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1463,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1475,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1485,8 +1067,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1494,8 +1076,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1503,12 +1085,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1536,7 +1118,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1553,7 +1135,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1570,7 +1152,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1587,7 +1169,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1607,7 +1189,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1627,7 +1209,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1644,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1661,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1678,7 +1260,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>218</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1695,7 +1277,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1715,7 +1297,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1735,7 +1317,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1744,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1752,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>222</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1761,7 +1343,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1769,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1778,7 +1360,7 @@
         <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1786,7 +1368,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1795,7 +1377,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
@@ -1806,7 +1388,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1815,7 +1397,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1823,7 +1405,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>226</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1832,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1840,7 +1422,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1849,11 +1431,11 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1861,24 +1443,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1915,7 +1497,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
@@ -1924,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
@@ -1938,7 +1520,7 @@
         <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -1947,7 +1529,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1958,7 +1540,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -1967,7 +1549,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1981,7 +1563,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -1990,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
@@ -2004,7 +1586,7 @@
         <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -2013,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -2027,7 +1609,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>15</v>
@@ -2036,14 +1618,15 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2051,25 +1634,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,7 +1678,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -2106,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2126,7 +1709,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2149,7 +1732,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2172,7 +1755,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2195,7 +1778,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>232</v>
+        <v>91</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2218,7 +1801,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>233</v>
+        <v>92</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2238,7 +1821,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>234</v>
+        <v>93</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2261,7 +1844,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2284,7 +1867,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>236</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2307,7 +1890,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>237</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2330,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>238</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2350,7 +1933,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2373,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2396,7 +1979,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>241</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2419,7 +2002,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2442,7 +2025,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>243</v>
+        <v>102</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2451,16 +2034,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,7 +2051,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2480,7 +2063,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2494,7 +2077,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>245</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2506,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>32</v>
@@ -2520,7 +2103,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2540,7 +2123,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>247</v>
+        <v>106</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2549,16 +2132,16 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2566,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2575,16 +2158,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2592,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>249</v>
+        <v>108</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2601,10 +2184,10 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -2615,7 +2198,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2627,13 +2210,13 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2641,7 +2224,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>110</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2650,10 +2233,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2662,7 +2245,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2670,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2679,16 +2262,16 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,7 +2279,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>112</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2705,10 +2288,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -2722,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2734,7 +2317,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2748,7 +2331,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2757,7 +2340,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -2766,7 +2349,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2774,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2800,7 +2383,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2826,7 +2409,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>117</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2846,7 +2429,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>259</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2855,7 +2438,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
@@ -2864,7 +2447,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2872,7 +2455,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>260</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2881,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2890,7 +2473,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2898,7 +2481,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2907,7 +2490,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
@@ -2921,7 +2504,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>121</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2939,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2947,7 +2530,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2956,7 +2539,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
@@ -2968,7 +2551,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2976,7 +2559,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>264</v>
+        <v>123</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2985,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>18</v>
@@ -2994,7 +2577,7 @@
         <v>32</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3002,7 +2585,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>124</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -3011,7 +2594,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
@@ -3028,7 +2611,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>125</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -3054,7 +2637,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -3063,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -3072,7 +2655,7 @@
         <v>32</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3080,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3106,7 +2689,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>269</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3132,7 +2715,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3152,7 +2735,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>271</v>
+        <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3161,7 +2744,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>30</v>
@@ -3170,7 +2753,7 @@
         <v>32</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3178,7 +2761,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3187,7 +2770,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -3196,7 +2779,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3204,7 +2787,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3213,7 +2796,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>30</v>
@@ -3227,7 +2810,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3245,7 +2828,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3253,7 +2836,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3262,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>30</v>
@@ -3274,7 +2857,7 @@
         <v>32</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3282,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3291,7 +2874,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
@@ -3300,7 +2883,7 @@
         <v>32</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3308,7 +2891,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3317,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>30</v>
@@ -3334,7 +2917,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3356,8 +2939,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3365,8 +2948,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3374,15 +2957,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3410,7 +2993,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3423,7 +3006,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -3469,7 +3052,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3477,21 +3060,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3519,7 +3102,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3531,18 +3114,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -3551,7 +3134,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3559,7 +3142,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3579,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3599,7 +3182,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3619,7 +3202,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3628,7 +3211,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -3639,7 +3222,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3648,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -3659,7 +3242,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3668,33 +3251,33 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3722,7 +3305,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3734,18 +3317,18 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -3754,7 +3337,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3762,7 +3345,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3782,7 +3365,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3802,7 +3385,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3818,13 +3401,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3832,12 +3415,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3862,7 +3445,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3879,7 +3462,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3888,10 +3471,10 @@
         <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379270B4-66F8-40E3-8877-93DC12F60EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{7D88F428-196A-4597-B1CD-19C0A6359743}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="990" windowWidth="24525" windowHeight="14010" activeTab="2" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="6" windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="615"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="154">
   <si>
     <t>Result</t>
   </si>
@@ -496,12 +496,22 @@
   </si>
   <si>
     <t>Fri Mar 08 23:23:52 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:06:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Wed Mar 20 23:06:46 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -550,19 +560,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,10 +589,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -617,7 +627,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -669,7 +679,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -780,21 +790,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -811,7 +821,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -863,15 +873,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -879,15 +889,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1067,8 +1077,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1076,8 +1086,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:F19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1085,12 +1095,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,7 +1445,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1443,24 +1453,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1626,7 +1636,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1634,8 +1644,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C52"/>
@@ -1643,16 +1653,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2939,8 +2949,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2948,8 +2958,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2957,15 +2967,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3052,7 +3062,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3060,354 +3070,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3415,12 +3079,325 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3475,6 +3452,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{7D88F428-196A-4597-B1CD-19C0A6359743}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464CA74-41F1-45B8-B4CE-03030895D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="14010" windowWidth="24525" xWindow="31110" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="615"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="151">
   <si>
     <t>Result</t>
   </si>
@@ -171,15 +171,6 @@
     <t>Tue Oct 31 18:01:50 EDT 2023</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:04:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Dec 07 22:08:14 EST 2023</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
@@ -498,20 +489,19 @@
     <t>Fri Mar 08 23:23:52 EST 2024</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Wed Mar 20 23:06:14 EDT 2024</t>
   </si>
   <si>
     <t>Wed Mar 20 23:06:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Existing Liability with Notice/Invoice Number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,19 +550,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -589,10 +579,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -627,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -679,7 +669,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -790,21 +780,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -821,7 +811,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -873,15 +863,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -889,15 +879,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -931,7 +921,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -943,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -954,7 +944,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -966,7 +956,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -977,7 +967,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -989,7 +979,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1003,7 +993,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1015,7 +1005,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1029,7 +1019,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1041,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1055,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1067,7 +1057,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1077,8 +1067,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1086,24 +1076,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="37.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,70 +1112,73 @@
       <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1194,18 +1187,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1214,86 +1207,98 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1302,18 +1307,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1322,130 +1327,142 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>54</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1453,8 +1470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1462,15 +1479,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,7 +1653,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1644,8 +1661,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C52"/>
@@ -1653,16 +1670,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1688,7 +1705,7 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1699,7 +1716,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1719,7 +1736,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1742,7 +1759,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1765,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1788,7 +1805,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1811,7 +1828,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1831,7 +1848,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1854,7 +1871,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1877,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1900,7 +1917,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1923,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1943,7 +1960,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1966,7 +1983,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1989,7 +2006,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2012,7 +2029,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2035,7 +2052,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2044,16 +2061,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2061,7 +2078,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2073,7 +2090,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2087,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2099,7 +2116,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>32</v>
@@ -2113,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2133,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2142,16 +2159,16 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2159,7 +2176,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2168,16 +2185,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2185,7 +2202,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2194,10 +2211,10 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -2208,7 +2225,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2220,13 +2237,13 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2234,7 +2251,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2243,10 +2260,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2255,7 +2272,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2263,7 +2280,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2272,16 +2289,16 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,7 +2306,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2298,10 +2315,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -2315,7 +2332,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2327,7 +2344,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2341,7 +2358,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2350,7 +2367,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -2359,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2367,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2393,7 +2410,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2419,7 +2436,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2439,7 +2456,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2448,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
@@ -2457,7 +2474,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2465,7 +2482,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2474,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2483,7 +2500,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2491,7 +2508,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2500,7 +2517,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
@@ -2514,7 +2531,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2532,7 +2549,7 @@
         <v>32</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2540,7 +2557,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2549,7 +2566,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
@@ -2561,7 +2578,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2569,7 +2586,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2578,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>18</v>
@@ -2587,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2595,7 +2612,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2604,7 +2621,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
@@ -2621,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2647,7 +2664,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2656,7 +2673,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -2665,7 +2682,7 @@
         <v>32</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2673,7 +2690,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2699,7 +2716,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2725,7 +2742,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2745,7 +2762,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2754,7 +2771,7 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>30</v>
@@ -2763,7 +2780,7 @@
         <v>32</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2771,7 +2788,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2780,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -2789,7 +2806,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,7 +2814,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2806,7 +2823,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>30</v>
@@ -2820,7 +2837,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2838,7 +2855,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2846,7 +2863,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2855,7 +2872,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>30</v>
@@ -2867,7 +2884,7 @@
         <v>32</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2875,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2884,7 +2901,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
@@ -2893,7 +2910,7 @@
         <v>32</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2901,7 +2918,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2910,7 +2927,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>30</v>
@@ -2927,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2949,8 +2966,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2958,8 +2975,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2967,15 +2984,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3020,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,7 +3033,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -3062,7 +3079,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3070,21 +3087,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,7 +3129,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3121,7 +3141,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3129,7 +3149,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3149,7 +3169,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -3166,7 +3189,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>139</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -3183,7 +3209,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3200,13 +3229,16 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -3217,13 +3249,16 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>142</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -3234,39 +3269,42 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3294,7 +3332,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3303,7 +3344,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3311,7 +3352,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3331,7 +3372,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -3348,7 +3392,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -3365,7 +3412,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>147</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3378,26 +3428,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3422,13 +3472,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -3439,19 +3489,19 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464CA74-41F1-45B8-B4CE-03030895D724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A66681-884B-42DC-9E36-77E9E170C15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -1079,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3436,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A66681-884B-42DC-9E36-77E9E170C15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB3822-99F6-4652-B94F-79CBADF412DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1155" windowWidth="24525" windowHeight="14010" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="152">
   <si>
     <t>Result</t>
   </si>
@@ -354,12 +354,6 @@
     <t>Fri Mar 08 22:56:52 EST 2024</t>
   </si>
   <si>
-    <t>Fri Mar 08 22:57:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:58:04 EST 2024</t>
-  </si>
-  <si>
     <t>Fri Mar 08 22:58:41 EST 2024</t>
   </si>
   <si>
@@ -496,6 +490,15 @@
   </si>
   <si>
     <t>Existing Liability with Notice/Invoice Number</t>
+  </si>
+  <si>
+    <t>MFLicNum</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 15:22:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 15:23:03 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G19"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -1144,7 +1147,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1161,7 +1164,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1178,7 +1181,7 @@
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1198,7 +1201,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1218,7 +1221,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -1238,7 +1241,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1258,7 +1261,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1278,7 +1281,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -1298,7 +1301,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1318,7 +1321,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1338,7 +1341,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>44</v>
@@ -1358,7 +1361,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>46</v>
@@ -1378,7 +1381,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>47</v>
@@ -1395,7 +1398,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
@@ -1418,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>49</v>
@@ -1438,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>50</v>
@@ -1455,7 +1458,7 @@
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>51</v>
@@ -1662,9 +1665,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
@@ -1679,10 +1682,11 @@
     <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
     <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1710,8 +1714,11 @@
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1754,7 +1761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1777,7 +1784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1800,7 +1807,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1823,7 +1830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1889,7 +1896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +1919,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2024,7 +2031,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -2047,7 +2054,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2073,7 +2080,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2099,7 +2106,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2125,7 +2132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2145,12 +2152,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2164,19 +2171,19 @@
       <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I21" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2197,12 +2204,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2220,12 +2227,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2246,12 +2253,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2275,12 +2282,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2301,12 +2308,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2327,12 +2334,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2353,12 +2360,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2379,12 +2386,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2405,12 +2412,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2431,12 +2438,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2451,12 +2458,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2470,19 +2477,19 @@
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2503,12 +2510,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2526,12 +2533,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2552,12 +2559,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2581,12 +2588,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2607,12 +2614,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2633,12 +2640,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2659,12 +2666,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2685,12 +2692,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2711,12 +2718,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2737,12 +2744,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2757,12 +2764,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2776,19 +2783,19 @@
       <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="I45" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2809,12 +2816,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2832,12 +2839,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2863,7 +2870,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2892,7 +2899,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2918,7 +2925,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2944,7 +2951,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3129,7 +3136,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3149,7 +3156,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3169,7 +3176,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3189,7 +3196,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3209,7 +3216,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3229,7 +3236,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3249,7 +3256,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3269,7 +3276,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3332,7 +3339,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3352,7 +3359,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3372,7 +3379,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3392,7 +3399,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3412,7 +3419,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3472,13 +3479,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -3489,13 +3496,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30DB3822-99F6-4652-B94F-79CBADF412DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB92D7-A240-4277-9E54-1BE96754BD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="152">
   <si>
     <t>Result</t>
   </si>
@@ -153,24 +153,6 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Oct 31 17:58:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 17:59:33 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:00:07 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:00:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:01:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Oct 31 18:01:50 EDT 2023</t>
-  </si>
-  <si>
     <t>DoNotRun</t>
   </si>
   <si>
@@ -225,280 +207,298 @@
     <t>June</t>
   </si>
   <si>
-    <t>Fri Mar 08 22:31:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:32:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:33:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:33:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:34:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:34:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:35:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:36:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:36:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:37:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:37:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:38:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:39:06 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:39:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:40:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:40:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:41:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:42:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:42:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:43:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:43:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:44:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:45:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:45:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:46:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:46:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:47:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:48:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:48:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:49:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:49:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:50:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:50:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:51:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:52:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:52:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:53:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:53:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:54:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:55:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:55:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:56:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:56:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:58:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:59:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 22:59:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:00:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:01:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:01:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:02:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:02:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:03:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:04:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:04:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:05:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:06:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:06:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:07:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:07:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:08:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:09:08 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:09:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:10:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:11:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:11:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:12:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:12:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:13:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:14:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:14:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:15:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:15:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:16:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:17:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:17:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:18:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:18:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:19:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:19:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:20:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:20:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:21:25 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:21:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:22:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:23:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Mar 08 23:23:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:06:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Wed Mar 20 23:06:46 EDT 2024</t>
-  </si>
-  <si>
     <t>Existing Liability with Notice/Invoice Number</t>
   </si>
   <si>
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Mon Apr 08 15:22:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 15:23:03 EDT 2024</t>
+    <t>Mon Apr 08 18:08:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:09:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:09:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:10:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:11:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:11:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:12:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:12:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:13:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:14:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:14:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:15:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:15:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:16:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:17:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:17:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:18:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:18:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:19:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:20:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:20:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:21:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:22:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:22:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:23:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:23:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:24:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:25:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:25:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:26:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:26:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:27:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:27:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:28:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:29:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:29:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:30:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:30:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:31:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:32:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:32:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:33:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:33:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:34:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:35:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:35:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:36:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:37:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:37:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:38:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:38:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:39:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:40:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:40:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:41:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:42:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:42:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:43:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:44:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:44:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:45:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:45:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:46:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:47:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:47:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:48:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:49:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:49:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:50:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:50:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:51:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:52:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:52:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:53:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:54:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:54:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:55:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:56:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:56:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:57:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:57:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:58:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:59:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 18:59:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:00:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:00:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:01:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:01:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:02:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:02:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:03:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:03:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:04:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:05:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:05:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Apr 08 19:06:37 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -924,7 +924,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -947,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -970,7 +970,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -996,7 +996,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1022,7 +1022,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1034,7 +1034,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1048,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1060,7 +1060,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1116,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,13 +1124,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>25</v>
@@ -1141,13 +1141,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -1158,13 +1158,13 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
@@ -1175,13 +1175,13 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
@@ -1195,13 +1195,13 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -1215,13 +1215,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>26</v>
@@ -1235,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
@@ -1255,13 +1255,13 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -1275,13 +1275,13 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -1295,13 +1295,13 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>12</v>
@@ -1315,13 +1315,13 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1335,16 +1335,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -1355,19 +1355,16 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1375,16 +1372,16 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1392,16 +1389,16 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>32</v>
@@ -1415,16 +1412,16 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>32</v>
@@ -1435,16 +1432,16 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1452,16 +1449,16 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1524,7 +1521,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1547,7 +1544,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1567,7 +1564,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1590,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1613,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1636,7 +1633,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1667,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
@@ -1709,13 +1706,13 @@
         <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1720,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1743,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1766,7 +1763,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1789,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1812,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1835,7 +1832,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1855,7 +1852,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1878,7 +1875,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1901,7 +1898,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1924,7 +1921,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1947,7 +1944,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1967,7 +1964,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1990,7 +1987,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2013,7 +2010,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2036,7 +2033,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2059,7 +2056,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2068,16 +2065,16 @@
         <v>16</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2085,7 +2082,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2097,7 +2094,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2111,7 +2108,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2123,7 +2120,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>32</v>
@@ -2137,7 +2134,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2157,7 +2154,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2166,13 +2163,13 @@
         <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>32</v>
@@ -2183,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2192,16 +2189,16 @@
         <v>16</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2209,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2218,10 +2215,10 @@
         <v>16</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -2232,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2244,13 +2241,13 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2258,7 +2255,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2267,10 +2264,10 @@
         <v>16</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2279,7 +2276,7 @@
         <v>32</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2287,7 +2284,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2296,16 +2293,16 @@
         <v>16</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2313,7 +2310,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2322,10 +2319,10 @@
         <v>16</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -2339,7 +2336,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2351,7 +2348,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2365,7 +2362,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2374,7 +2371,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
@@ -2383,7 +2380,7 @@
         <v>32</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2391,7 +2388,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2417,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2443,7 +2440,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2463,7 +2460,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2472,13 +2469,13 @@
         <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>32</v>
@@ -2489,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2498,7 +2495,7 @@
         <v>16</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>18</v>
@@ -2507,7 +2504,7 @@
         <v>32</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -2515,7 +2512,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2524,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>18</v>
@@ -2538,7 +2535,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2556,7 +2553,7 @@
         <v>32</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -2564,7 +2561,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2573,7 +2570,7 @@
         <v>16</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>18</v>
@@ -2585,7 +2582,7 @@
         <v>32</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -2593,7 +2590,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2602,7 +2599,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>18</v>
@@ -2611,7 +2608,7 @@
         <v>32</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2619,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2628,7 +2625,7 @@
         <v>16</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>18</v>
@@ -2645,7 +2642,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2671,7 +2668,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2680,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>30</v>
@@ -2689,7 +2686,7 @@
         <v>32</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2697,7 +2694,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2723,7 +2720,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2749,7 +2746,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2769,7 +2766,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2778,13 +2775,13 @@
         <v>16</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>32</v>
@@ -2795,7 +2792,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2804,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>30</v>
@@ -2813,7 +2810,7 @@
         <v>32</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,7 +2818,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2830,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>30</v>
@@ -2844,7 +2841,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2862,7 +2859,7 @@
         <v>32</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2870,7 +2867,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2879,7 +2876,7 @@
         <v>16</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>30</v>
@@ -2891,7 +2888,7 @@
         <v>32</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2899,7 +2896,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2908,7 +2905,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>30</v>
@@ -2917,7 +2914,7 @@
         <v>32</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2925,7 +2922,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2934,7 +2931,7 @@
         <v>16</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>30</v>
@@ -2951,7 +2948,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3027,7 +3024,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3040,7 +3037,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>15</v>
@@ -3136,7 +3133,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3148,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,7 +3153,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3176,7 +3173,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3196,7 +3193,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3216,7 +3213,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3236,7 +3233,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3245,7 +3242,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>18</v>
@@ -3256,7 +3253,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3265,7 +3262,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>30</v>
@@ -3276,7 +3273,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3285,7 +3282,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>31</v>
@@ -3339,7 +3336,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3351,7 +3348,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3359,7 +3356,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3379,7 +3376,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3399,7 +3396,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3419,7 +3416,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3479,13 +3476,13 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -3496,16 +3493,16 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AB92D7-A240-4277-9E54-1BE96754BD0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C7045-5566-410D-A3B2-CDFEB8C75236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="32145" yWindow="2340" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="152">
   <si>
     <t>Result</t>
   </si>
@@ -213,292 +213,292 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Mon Apr 08 18:08:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:09:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:09:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:10:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:11:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:11:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:12:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:12:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:13:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:14:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:14:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:15:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:15:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:16:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:17:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:17:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:18:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:18:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:19:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:20:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:20:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:21:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:22:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:22:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:23:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:23:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:24:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:25:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:25:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:26:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:26:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:27:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:27:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:28:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:29:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:29:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:30:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:30:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:31:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:32:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:32:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:33:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:33:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:34:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:35:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:35:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:36:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:37:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:37:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:38:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:38:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:39:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:40:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:40:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:41:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:42:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:42:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:43:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:44:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:44:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:45:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:45:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:46:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:47:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:47:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:48:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:49:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:49:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:50:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:50:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:51:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:52:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:52:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:53:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:54:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:54:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:55:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:56:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:56:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:57:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:57:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:58:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:59:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 18:59:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:00:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:00:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:01:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:01:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:02:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:02:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:03:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:03:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:04:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:05:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:05:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Apr 08 19:06:37 EDT 2024</t>
+    <t>Sun Oct 13 11:10:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:11:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:11:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:12:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:12:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:13:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:13:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:14:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:15:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:15:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:16:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:16:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:17:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:18:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:18:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:19:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:19:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:20:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:22:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:22:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:23:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:23:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:24:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:25:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:25:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:26:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:26:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:27:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:27:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:28:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:28:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:29:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:30:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:30:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:31:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:31:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:32:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:32:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:33:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:34:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:34:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:35:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:35:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:36:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:36:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:37:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:38:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:38:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:39:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:39:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:40:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:41:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:41:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:42:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:42:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:43:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:44:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:44:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:45:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:45:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:46:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:47:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:47:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:48:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:48:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:49:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:49:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:50:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:51:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:51:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:52:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:52:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:53:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:54:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:54:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:55:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:55:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:56:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:57:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:57:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:58:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:58:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:59:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 11:59:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:00:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:00:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:01:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:01:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:02:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:02:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:03:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:04:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:04:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:05:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Sun Oct 13 12:05:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon Oct 14 22:04:25 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -578,9 +578,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -618,7 +618,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -724,7 +724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -866,7 +866,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1080,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,10 +1093,12 @@
     <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
     <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1120,11 @@
       <c r="G1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1153,7 +1158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1170,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1190,7 +1195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1230,7 +1235,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1290,7 +1295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1310,7 +1315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1350,12 +1355,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1366,13 +1371,16 @@
       <c r="E14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1384,12 +1392,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1412,7 +1420,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1432,7 +1440,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1449,7 +1457,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1521,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1544,7 +1552,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1564,7 +1572,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1587,7 +1595,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1610,7 +1618,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1633,7 +1641,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1665,7 +1673,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C52"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1728,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1740,7 +1748,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1763,7 +1771,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1786,7 +1794,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1809,7 +1817,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1832,7 +1840,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1852,7 +1860,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1875,7 +1883,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1898,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1921,7 +1929,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1944,7 +1952,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1964,7 +1972,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1987,7 +1995,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2010,7 +2018,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2033,7 +2041,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2056,7 +2064,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2082,7 +2090,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2108,7 +2116,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2134,7 +2142,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2154,7 +2162,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2180,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2206,7 +2214,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2229,7 +2237,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2255,7 +2263,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2284,7 +2292,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2310,7 +2318,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2336,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2362,7 +2370,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2388,7 +2396,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2414,7 +2422,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2440,7 +2448,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2460,7 +2468,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2486,7 +2494,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2512,7 +2520,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2535,7 +2543,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2561,7 +2569,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2590,7 +2598,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2616,7 +2624,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2642,7 +2650,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2668,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2694,7 +2702,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2720,7 +2728,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2746,7 +2754,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2766,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2792,7 +2800,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2818,7 +2826,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2841,7 +2849,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2867,7 +2875,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2896,7 +2904,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2922,7 +2930,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2948,7 +2956,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3133,7 +3141,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3153,7 +3161,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3173,7 +3181,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3193,7 +3201,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3213,7 +3221,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3233,7 +3241,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3253,7 +3261,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3273,7 +3281,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3336,7 +3344,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3356,7 +3364,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3376,7 +3384,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3396,7 +3404,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3416,7 +3424,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3476,7 +3484,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3493,7 +3501,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7C7045-5566-410D-A3B2-CDFEB8C75236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4C7C7045-5566-410D-A3B2-CDFEB8C75236}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="32145" yWindow="2340" windowWidth="25710" windowHeight="12690" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="1" windowHeight="12690" windowWidth="25710" xWindow="32145" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2340"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="441">
   <si>
     <t>Result</t>
   </si>
@@ -499,12 +499,880 @@
   </si>
   <si>
     <t>Mon Oct 14 22:04:25 EDT 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Oct 17 22:56:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 22:57:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 22:57:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 22:58:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 22:59:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 22:59:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:00:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:00:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:01:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:02:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:02:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:03:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:03:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:04:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:05:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:05:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:06:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:06:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:07:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:08:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:08:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:09:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:10:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:10:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:11:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:11:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:12:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:12:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:13:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:14:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:14:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:15:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:15:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:16:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:17:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:17:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:18:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:18:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:19:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:19:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:20:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:21:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:21:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:22:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:22:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:23:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:24:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:24:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:25:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:26:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:26:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:27:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:27:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:28:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:29:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:29:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:30:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:30:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:31:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:32:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:32:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:33:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:34:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:34:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:35:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:35:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:36:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:37:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:37:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:38:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:38:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:39:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:40:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:40:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:41:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:42:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:42:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:43:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:43:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:44:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:45:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:45:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:46:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:46:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:47:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:47:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:48:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:49:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:49:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:50:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:50:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:51:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:51:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:52:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:53:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 17 23:53:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:57:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:57:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:58:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:59:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 21:59:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:00:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:00:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:01:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:01:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:02:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:03:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:03:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:04:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:05:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:05:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:06:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:06:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:07:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:08:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:08:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:09:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:09:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:10:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:11:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:11:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:12:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:12:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:13:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:14:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:14:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:15:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:15:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:16:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:16:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:17:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:18:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:18:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:19:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:19:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:20:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:21:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:21:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:22:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:22:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:23:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:23:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:24:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:25:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:25:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:26:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:27:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:27:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:28:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:28:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:29:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:30:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:30:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:31:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:31:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:32:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:33:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:33:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:34:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:35:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:35:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:36:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:36:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:37:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:38:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:38:43 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:39:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:39:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:40:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:41:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:41:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:42:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:43:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:43:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:44:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:44:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:45:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:46:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:46:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:47:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:47:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:48:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:48:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:49:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:49:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:50:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:50:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:51:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:52:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:52:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:53:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Oct 24 22:53:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:07:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:08:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:09:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:09:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:10:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:10:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:11:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:12:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:12:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:13:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:13:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:14:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:15:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:15:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:16:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:17:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:17:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:18:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:18:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:19:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:20:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:20:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:21:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:22:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:22:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:23:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:23:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:24:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:24:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:25:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:26:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:26:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:27:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:27:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:28:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:29:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:29:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:30:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:30:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:31:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:32:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:32:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:33:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:34:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:34:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:35:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:35:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:36:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:37:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:37:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:38:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:38:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:39:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:40:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:40:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:41:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:42:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:42:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:43:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:44:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:44:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:45:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:45:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:46:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:47:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:47:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:48:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:49:09 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:49:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:50:26 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:51:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:51:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:52:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:52:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:53:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:54:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:54:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:55:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:56:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:56:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:57:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:58:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:58:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:59:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 12:59:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:00:23 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:00:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:01:28 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:02:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:02:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:03:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:03:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:04:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:05:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:05:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Fri Oct 25 13:06:21 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,19 +1421,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -582,10 +1450,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -620,7 +1488,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -672,7 +1540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -783,21 +1651,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -814,7 +1682,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -866,15 +1734,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -882,15 +1750,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -924,7 +1792,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -947,7 +1815,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -970,7 +1838,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>347</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -996,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>348</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1022,7 +1890,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>349</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1048,7 +1916,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>350</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1070,8 +1938,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1079,8 +1947,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1088,14 +1956,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,7 +1997,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>351</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1146,7 +2014,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1163,7 +2031,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>353</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1180,7 +2048,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>354</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1200,7 +2068,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>355</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1220,7 +2088,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>356</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1240,7 +2108,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>357</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1260,7 +2128,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>358</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1280,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>359</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1300,7 +2168,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1320,7 +2188,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>361</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1340,7 +2208,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>362</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1360,7 +2228,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>151</v>
+        <v>363</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1380,7 +2248,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>364</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1397,7 +2265,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>365</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1420,7 +2288,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1440,7 +2308,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1457,7 +2325,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1470,7 +2338,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1478,8 +2346,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1487,15 +2355,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +2397,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1552,7 +2420,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>370</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1572,7 +2440,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1595,7 +2463,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1618,7 +2486,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>373</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1641,7 +2509,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>374</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1661,7 +2529,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1669,8 +2537,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -1678,17 +2546,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1728,7 +2596,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1748,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>376</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1771,7 +2639,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1794,7 +2662,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>378</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1817,7 +2685,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>379</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1840,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>380</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1860,7 +2728,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>381</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1883,7 +2751,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>382</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1906,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>383</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1929,7 +2797,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>94</v>
+        <v>384</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1952,7 +2820,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>385</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1972,7 +2840,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>386</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1995,7 +2863,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>387</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2018,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>388</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2041,7 +2909,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>389</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2064,7 +2932,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>390</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2090,7 +2958,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>391</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2116,7 +2984,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>392</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2142,7 +3010,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>393</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2162,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2188,7 +3056,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>395</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2214,7 +3082,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>396</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2237,7 +3105,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>397</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2263,7 +3131,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>398</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2292,7 +3160,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2318,7 +3186,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2344,7 +3212,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>111</v>
+        <v>401</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2370,7 +3238,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>402</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2396,7 +3264,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>403</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2422,7 +3290,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>404</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2448,7 +3316,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>405</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2468,7 +3336,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>116</v>
+        <v>406</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2494,7 +3362,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>407</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2520,7 +3388,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>408</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2543,7 +3411,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>409</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2569,7 +3437,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>410</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2598,7 +3466,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>411</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2624,7 +3492,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>412</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2650,7 +3518,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>123</v>
+        <v>413</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2676,7 +3544,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>414</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2702,7 +3570,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>125</v>
+        <v>415</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2728,7 +3596,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>416</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2754,7 +3622,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2774,7 +3642,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>418</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2800,7 +3668,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>129</v>
+        <v>419</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2826,7 +3694,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>420</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2849,7 +3717,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>421</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2875,7 +3743,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>422</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2904,7 +3772,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>423</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2930,7 +3798,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>424</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2956,7 +3824,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>135</v>
+        <v>425</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2978,8 +3846,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2987,8 +3855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -2996,15 +3864,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3091,7 +3959,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3099,8 +3967,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C9"/>
@@ -3108,12 +3976,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3141,7 +4009,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>138</v>
+        <v>428</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3161,7 +4029,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>139</v>
+        <v>429</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3181,7 +4049,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>430</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3201,7 +4069,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>431</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3221,7 +4089,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>432</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3241,7 +4109,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>433</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3261,7 +4129,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>434</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3281,7 +4149,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>435</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3297,13 +4165,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C6"/>
@@ -3311,12 +4179,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3344,7 +4212,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>436</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3364,7 +4232,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>437</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3384,7 +4252,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>438</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3404,7 +4272,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>149</v>
+        <v>439</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3424,7 +4292,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3440,13 +4308,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -3454,12 +4322,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3484,7 +4352,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>426</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3501,7 +4369,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>427</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3514,6 +4382,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4C7C7045-5566-410D-A3B2-CDFEB8C75236}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8F6A9-AB16-45BD-AF4F-4629E2FF50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12690" windowWidth="25710" xWindow="32145" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="2340"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="6" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="154">
   <si>
     <t>Result</t>
   </si>
@@ -213,1137 +213,9 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Sun Oct 13 11:10:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:11:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:11:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:12:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:12:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:13:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:13:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:14:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:15:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:15:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:16:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:16:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:17:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:18:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:18:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:19:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:19:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:20:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:22:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:22:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:23:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:23:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:24:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:25:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:25:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:26:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:26:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:27:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:27:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:28:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:28:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:29:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:30:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:30:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:31:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:31:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:32:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:32:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:33:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:34:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:34:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:35:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:35:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:36:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:36:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:37:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:38:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:38:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:39:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:39:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:40:28 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:41:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:41:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:42:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:42:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:43:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:44:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:44:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:45:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:45:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:46:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:47:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:47:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:48:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:48:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:49:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:49:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:50:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:51:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:51:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:52:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:52:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:53:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:54:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:54:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:55:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:55:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:56:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:57:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:57:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:58:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:58:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:59:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 11:59:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:00:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:00:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:01:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:01:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:02:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:02:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:03:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:04:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:04:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:05:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Sun Oct 13 12:05:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Mon Oct 14 22:04:25 EDT 2024</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:56:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:57:17 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:57:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:58:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:59:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 22:59:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:00:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:00:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:01:31 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:02:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:02:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:03:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:03:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:04:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:05:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:05:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:06:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:06:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:07:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:08:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:08:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:09:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:10:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:10:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:11:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:11:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:12:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:12:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:13:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:14:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:14:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:15:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:15:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:16:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:17:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:17:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:18:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:18:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:19:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:19:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:20:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:21:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:21:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:22:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:22:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:23:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:24:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:24:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:25:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:26:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:26:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:27:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:27:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:28:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:29:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:29:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:30:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:30:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:31:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:32:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:32:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:33:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:34:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:34:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:35:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:35:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:36:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:37:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:37:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:38:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:38:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:39:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:40:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:40:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:41:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:42:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:42:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:43:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:43:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:44:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:45:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:45:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:46:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:46:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:47:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:47:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:48:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:49:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:49:33 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:50:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:50:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:51:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:51:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:52:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:53:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 17 23:53:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:57:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:57:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:58:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:59:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 21:59:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:00:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:00:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:01:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:01:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:02:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:03:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:03:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:04:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:05:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:05:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:06:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:06:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:07:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:08:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:08:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:09:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:09:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:10:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:11:11 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:11:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:12:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:12:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:13:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:14:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:14:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:15:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:15:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:16:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:16:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:17:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:18:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:18:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:19:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:19:54 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:20:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:21:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:21:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:22:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:22:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:23:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:23:59 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:24:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:25:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:25:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:26:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:27:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:27:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:28:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:28:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:29:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:30:07 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:30:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:31:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:31:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:32:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:33:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:33:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:34:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:35:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:35:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:36:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:36:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:37:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:38:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:38:43 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:39:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:39:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:40:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:41:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:41:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:42:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:43:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:43:37 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:44:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:44:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:45:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:46:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:46:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:47:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:47:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:48:15 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:48:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:49:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:49:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:50:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:50:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:51:24 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:52:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:52:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:53:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Thu Oct 24 22:53:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:07:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:08:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:09:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:09:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:10:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:10:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:11:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:12:03 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:12:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:13:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:13:53 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:14:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:15:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:15:45 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:16:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:17:02 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:17:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:18:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:18:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:19:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:20:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:20:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:21:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:22:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:22:38 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:23:13 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:23:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:24:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:24:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:25:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:26:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:26:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:27:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:27:55 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:28:32 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:29:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:29:44 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:30:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:30:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:31:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:32:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:32:46 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:33:22 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:34:00 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:34:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:35:10 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:35:48 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:36:27 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:37:05 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:37:41 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:38:19 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:38:58 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:39:35 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:40:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:40:52 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:41:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:42:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:42:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:43:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:44:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:44:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:45:18 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:45:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:46:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:47:12 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:47:50 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:48:29 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:49:09 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:49:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:50:26 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:51:04 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:51:42 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:52:21 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:52:57 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:53:36 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:54:14 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:54:51 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:55:30 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:56:08 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:56:47 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:57:25 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:58:03 EDT 2024</t>
-  </si>
-  <si>
     <t>Fri Oct 25 12:58:40 EDT 2024</t>
   </si>
   <si>
-    <t>Fri Oct 25 12:59:16 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 12:59:49 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:00:23 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:00:56 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:01:28 EDT 2024</t>
-  </si>
-  <si>
     <t>Fri Oct 25 13:02:01 EDT 2024</t>
   </si>
   <si>
@@ -1353,26 +225,292 @@
     <t>Fri Oct 25 13:03:06 EDT 2024</t>
   </si>
   <si>
-    <t>Fri Oct 25 13:03:39 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:04:20 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:05:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:05:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:06:21 EDT 2024</t>
+    <t>Thu Nov 07 20:48:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:49:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:49:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:50:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:51:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:51:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:52:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:52:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:53:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:54:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:54:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:55:41 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:56:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:57:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:57:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:58:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 20:59:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:00:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:01:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:01:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:02:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:03:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:03:46 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:04:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:05:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:05:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:06:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:06:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:08:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:08:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:09:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:10:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:10:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:11:23 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:12:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:12:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:13:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:13:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:14:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:15:17 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:15:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:16:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:17:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:18:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:19:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:19:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:20:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:21:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:21:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:22:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:23:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:24:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:24:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:25:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:26:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:26:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:27:24 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:28:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:28:47 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:29:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:30:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:30:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:31:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:32:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:32:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:33:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:34:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:34:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:35:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:36:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:36:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:37:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:38:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:38:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:39:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:40:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:40:50 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:41:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:42:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:42:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:43:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:51:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 21:52:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:04:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:06:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:07:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:09:10 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:11:03 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:15:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:16:27 EST 2024</t>
+  </si>
+  <si>
+    <t>Thu Nov 07 22:18:42 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1421,19 +559,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1450,10 +588,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1488,7 +626,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1540,7 +678,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1651,21 +789,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1682,7 +820,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1734,15 +872,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -1750,15 +888,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1792,7 +930,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1815,7 +953,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1838,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>347</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1864,7 +1002,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1890,7 +1028,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1916,7 +1054,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1938,8 +1076,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1947,23 +1085,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1997,7 +1135,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>66</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2014,7 +1152,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2031,7 +1169,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>353</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2048,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2068,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2088,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2108,7 +1246,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2128,7 +1266,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2148,7 +1286,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2168,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2188,7 +1326,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2208,7 +1346,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>77</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2228,7 +1366,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>363</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2248,7 +1386,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>364</v>
+        <v>79</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2265,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2288,7 +1426,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>366</v>
+        <v>81</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2308,7 +1446,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2325,7 +1463,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>368</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2338,7 +1476,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2346,8 +1484,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -2355,15 +1493,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,7 +1535,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>369</v>
+        <v>84</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2420,7 +1558,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>370</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2440,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>371</v>
+        <v>86</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2463,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>372</v>
+        <v>87</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2486,7 +1624,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2509,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2529,7 +1667,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2537,8 +1675,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -2546,17 +1684,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2596,7 +1734,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>375</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2616,7 +1754,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2639,7 +1777,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>377</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2662,7 +1800,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>378</v>
+        <v>93</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2685,7 +1823,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2708,7 +1846,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2728,7 +1866,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2751,7 +1889,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>97</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2774,7 +1912,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>98</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2797,7 +1935,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>99</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2820,7 +1958,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2840,7 +1978,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2863,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2886,7 +2024,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>103</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2909,7 +2047,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>104</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2932,7 +2070,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>390</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2958,7 +2096,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2984,7 +2122,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -3010,7 +2148,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>393</v>
+        <v>108</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -3030,7 +2168,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>394</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -3056,7 +2194,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -3082,7 +2220,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -3105,7 +2243,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>112</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -3131,7 +2269,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>113</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -3160,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -3186,7 +2324,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>400</v>
+        <v>115</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -3212,7 +2350,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>401</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -3238,7 +2376,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>402</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -3264,7 +2402,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>403</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -3290,7 +2428,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>404</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -3316,7 +2454,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>405</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -3336,7 +2474,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>406</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -3362,7 +2500,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>407</v>
+        <v>122</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -3388,7 +2526,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>408</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -3411,7 +2549,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -3437,7 +2575,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -3466,7 +2604,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>411</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -3492,7 +2630,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>412</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -3518,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>413</v>
+        <v>128</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -3544,7 +2682,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>414</v>
+        <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -3570,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>415</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3596,7 +2734,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>416</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3622,7 +2760,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3642,7 +2780,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>418</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3668,7 +2806,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>419</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3694,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>420</v>
+        <v>135</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3717,7 +2855,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>421</v>
+        <v>136</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3743,7 +2881,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>422</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3772,7 +2910,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>423</v>
+        <v>138</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3798,7 +2936,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>424</v>
+        <v>139</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3824,7 +2962,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>425</v>
+        <v>140</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3846,8 +2984,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3855,8 +2993,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3864,15 +3002,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3959,7 +3097,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3967,21 +3105,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="C4" sqref="C4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4009,10 +3147,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -4029,10 +3167,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -4049,10 +3187,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -4069,10 +3207,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -4089,10 +3227,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>150</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -4109,10 +3247,10 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -4129,10 +3267,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -4149,10 +3287,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -4165,26 +3303,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -4212,10 +3350,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>436</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -4232,10 +3370,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>152</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -4252,10 +3390,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>153</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -4272,10 +3410,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -4292,10 +3430,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -4308,26 +3446,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4352,7 +3490,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>426</v>
+        <v>141</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -4364,15 +3502,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -4382,6 +3520,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8F6A9-AB16-45BD-AF4F-4629E2FF50BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9EA03EDB-CE0F-4026-8B80-DD0EAA880C06}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="6" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="255">
   <si>
     <t>Result</t>
   </si>
@@ -483,18 +483,9 @@
     <t>Thu Nov 07 22:06:30 EST 2024</t>
   </si>
   <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Thu Nov 07 22:07:56 EST 2024</t>
   </si>
   <si>
-    <t>Thu Nov 07 22:09:10 EST 2024</t>
-  </si>
-  <si>
     <t>Thu Nov 07 22:11:03 EST 2024</t>
   </si>
   <si>
@@ -505,12 +496,325 @@
   </si>
   <si>
     <t>Thu Nov 07 22:18:42 EST 2024</t>
+  </si>
+  <si>
+    <t>Fri Nov 08 09:32:20 EST 2024</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Nov 12 14:58:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 14:59:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 14:59:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:00:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:00:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:02:05 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:02:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:03:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:04:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:05:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:54:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:55:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:55:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:56:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:57:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:57:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:58:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:59:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:59:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:00:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:01:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:01:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:02:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:03:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:03:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:04:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:04:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:05:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:06:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:06:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:08:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:08:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:09:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:10:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:10:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:11:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:11:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:12:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:13:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:13:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:14:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:14:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:15:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:16:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:16:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:17:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:18:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:18:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:19:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:20:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:20:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:21:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:22:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:23:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:23:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:24:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:25:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:25:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:26:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:27:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:27:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:28:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:29:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:29:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:30:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:31:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:31:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:32:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:33:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:33:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:34:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:35:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:35:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:36:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:37:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:37:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:38:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:39:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:39:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:40:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:41:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:41:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:42:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:43:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:43:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:44:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:45:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:45:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:46:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:47:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:47:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:48:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:48:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:49:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:50:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:50:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:51:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:52:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:52:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:53:23 EST 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -559,19 +863,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -588,10 +892,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -626,7 +930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -678,7 +982,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -789,21 +1093,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -820,7 +1124,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -872,31 +1176,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -930,7 +1234,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -953,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -976,7 +1280,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1002,7 +1306,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1028,7 +1332,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1054,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>168</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1076,8 +1380,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1085,8 +1389,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C19"/>
@@ -1094,14 +1398,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1135,7 +1439,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1152,7 +1456,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1169,7 +1473,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1186,7 +1490,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1206,7 +1510,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1226,7 +1530,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1246,7 +1550,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1266,7 +1570,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1286,7 +1590,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1306,7 +1610,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>178</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1326,7 +1630,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>179</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1346,7 +1650,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1366,7 +1670,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1386,7 +1690,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1403,7 +1707,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1426,7 +1730,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1446,7 +1750,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1463,7 +1767,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1476,7 +1780,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1484,8 +1788,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1493,15 +1797,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1535,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1558,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1578,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1601,7 +1905,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1624,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1647,7 +1951,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>192</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1667,7 +1971,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1675,8 +1979,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -1684,17 +1988,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1734,7 +2038,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>193</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1754,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>194</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1777,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1800,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1823,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1846,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>198</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1866,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1889,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>97</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1912,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1935,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1958,7 +2262,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1978,7 +2282,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2001,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2024,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2047,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>207</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2070,7 +2374,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2096,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2122,7 +2426,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2148,7 +2452,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>211</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2168,7 +2472,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>212</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2194,7 +2498,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2220,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2243,7 +2547,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2269,7 +2573,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>216</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2298,7 +2602,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>217</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2324,7 +2628,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2350,7 +2654,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2376,7 +2680,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>220</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2402,7 +2706,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2428,7 +2732,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>222</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2454,7 +2758,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2474,7 +2778,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2500,7 +2804,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2526,7 +2830,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2549,7 +2853,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>227</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2575,7 +2879,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2604,7 +2908,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>229</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2630,7 +2934,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>230</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2656,7 +2960,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2682,7 +2986,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2708,7 +3012,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2734,7 +3038,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2760,7 +3064,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2780,7 +3084,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -2806,7 +3110,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -2832,7 +3136,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>238</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -2855,7 +3159,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>239</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -2881,7 +3185,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2910,7 +3214,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -2936,7 +3240,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -2962,7 +3266,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -2984,8 +3288,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2993,8 +3297,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3002,15 +3306,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +3401,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3105,21 +3409,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:F6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3147,10 +3451,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3167,10 +3471,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -3187,10 +3491,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>247</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -3207,10 +3511,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -3227,10 +3531,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3303,26 +3607,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,10 +3654,10 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3370,10 +3674,10 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>15</v>
@@ -3390,10 +3694,10 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -3410,10 +3714,10 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -3430,10 +3734,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>254</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3446,13 +3750,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -3460,12 +3764,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3490,7 +3794,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3502,7 +3806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -3520,6 +3824,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9EA03EDB-CE0F-4026-8B80-DD0EAA880C06}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B9ABD723-07DF-4E9D-AA0E-0D01C81A4ED5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView activeTab="6" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" r:id="rId1" sheetId="1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="247">
   <si>
     <t>Result</t>
   </si>
@@ -225,589 +225,565 @@
     <t>Fri Oct 25 13:03:06 EDT 2024</t>
   </si>
   <si>
-    <t>Thu Nov 07 20:48:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:49:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:49:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:50:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:51:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:51:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:52:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:52:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:53:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:54:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:54:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:55:41 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:56:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:57:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:57:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:58:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 20:59:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:00:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:01:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:01:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:02:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:03:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:03:46 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:04:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:05:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:05:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:06:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:06:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:07:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:08:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:08:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:09:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:10:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:10:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:11:23 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:12:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:12:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:13:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:13:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:14:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:15:17 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:15:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:16:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:17:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:18:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:19:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:19:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:20:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:21:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:21:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:22:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:23:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:24:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:24:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:25:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:26:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:26:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:27:24 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:28:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:28:47 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:29:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:30:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:30:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:31:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:32:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:32:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:33:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:34:10 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:34:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:35:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:36:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:36:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:37:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:38:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:38:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:39:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:40:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:40:50 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:41:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:42:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:42:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:43:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:51:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 21:52:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:04:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:06:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:07:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:11:03 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:15:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:16:27 EST 2024</t>
-  </si>
-  <si>
-    <t>Thu Nov 07 22:18:42 EST 2024</t>
-  </si>
-  <si>
-    <t>Fri Nov 08 09:32:20 EST 2024</t>
+    <t>Tue Nov 12 15:54:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:55:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:55:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:56:30 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:57:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:57:48 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:58:26 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:59:04 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 15:59:43 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:00:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:01:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:01:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:02:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:03:00 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:03:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:04:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:04:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:05:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:06:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:06:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:07:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:08:11 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:08:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:09:28 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:10:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:10:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:11:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:11:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:12:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:13:09 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:13:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:14:21 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:14:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:15:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:16:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:16:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:17:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:18:13 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:18:51 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:19:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:20:07 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:20:45 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:21:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:22:01 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:22:37 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:23:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:23:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:24:33 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:25:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:25:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:26:38 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:27:19 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:27:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:28:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:29:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:29:58 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:30:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:31:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:31:59 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:32:40 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:33:18 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:33:56 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:34:35 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:35:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:35:55 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:36:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:37:16 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:37:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:38:36 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:39:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:39:54 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:40:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:41:15 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:41:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:42:34 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:43:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:43:52 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:44:32 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:45:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:45:53 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:46:31 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:47:14 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:47:49 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:48:22 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:48:57 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:49:29 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:50:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:50:39 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:51:20 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:52:02 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:52:44 EST 2024</t>
+  </si>
+  <si>
+    <t>Tue Nov 12 16:53:23 EST 2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Tue Nov 12 14:58:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 14:59:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 14:59:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:00:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:00:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:02:05 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:02:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:03:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:04:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:05:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:54:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:55:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:55:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:56:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:57:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:57:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:58:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:59:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:59:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:00:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:01:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:01:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:02:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:03:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:03:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:04:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:04:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:05:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:06:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:06:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:07:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:08:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:08:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:09:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:10:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:10:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:11:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:11:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:12:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:13:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:13:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:14:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:14:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:15:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:16:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:16:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:17:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:18:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:18:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:19:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:20:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:20:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:21:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:22:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:23:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:23:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:24:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:25:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:25:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:26:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:27:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:27:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:28:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:29:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:29:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:30:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:31:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:31:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:32:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:33:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:33:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:34:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:35:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:35:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:36:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:37:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:37:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:38:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:39:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:39:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:40:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:41:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:41:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:42:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:43:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:43:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:44:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:45:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:45:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:46:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:47:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:47:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:48:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:48:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:49:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:50:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:50:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:51:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:52:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:52:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:53:23 EST 2024</t>
+    <t>Tue Jan 28 22:12:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:12:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:13:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:14:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:14:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:15:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:15:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:16:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:17:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:17:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:18:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:18:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:19:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:20:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:20:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:21:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:21:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:22:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:23:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:23:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:24:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:24:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:25:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:27:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:29:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:29:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:30:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:30:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:31:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:31:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:32:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:33:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:33:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:34:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:34:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:35:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:36:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:36:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:37:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:37:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:38:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:39:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:39:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:40:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:40:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:41:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:41:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:42:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:43:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:43:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:44:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:45:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:45:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:46:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:46:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:47:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:49:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:50:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:51:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:51:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:52:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:52:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:53:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:54:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:54:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:55:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:55:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:56:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:58:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 22:59:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:00:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:00:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:01:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:01:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:02:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:03:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:03:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:04:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:05:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:05:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:07:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:08:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:09:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:09:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:10:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:10:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:11:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:11:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:12:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:13:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:13:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Jan 28 23:14:20 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1210,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1246,7 +1222,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>19</v>
@@ -1257,7 +1233,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1269,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
@@ -1280,7 +1256,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1292,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>21</v>
@@ -1306,7 +1282,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1318,7 +1294,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
@@ -1332,7 +1308,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1344,7 +1320,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
@@ -1358,7 +1334,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1370,7 +1346,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
@@ -1380,6 +1356,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
@@ -1439,7 +1416,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1456,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1473,7 +1450,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1490,7 +1467,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1510,7 +1487,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1530,7 +1507,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1550,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1570,7 +1547,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1590,7 +1567,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1610,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1630,7 +1607,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1650,7 +1627,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1670,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1690,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1707,7 +1684,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1730,7 +1707,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1747,10 +1724,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1764,10 +1741,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1839,7 +1816,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1851,7 +1828,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>22</v>
@@ -1862,7 +1839,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1874,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,7 +1859,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1894,7 +1871,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1905,7 +1882,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1917,7 +1894,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
@@ -1928,7 +1905,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1940,7 +1917,7 @@
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -1951,7 +1928,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1963,7 +1940,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
@@ -1983,7 +1960,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,7 +2015,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2049,8 +2026,8 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
+      <c r="F2" s="1">
+        <v>2024</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2069,8 +2046,8 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
+      <c r="F3" s="1">
+        <v>2024</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>32</v>
@@ -2081,7 +2058,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2092,8 +2069,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
+      <c r="F4" s="1">
+        <v>2024</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>32</v>
@@ -2104,7 +2081,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2115,8 +2092,8 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>18</v>
+      <c r="F5" s="1">
+        <v>2024</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>32</v>
@@ -2127,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2138,8 +2115,8 @@
       <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>18</v>
+      <c r="F6" s="1">
+        <v>2024</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
@@ -2150,7 +2127,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2161,8 +2138,8 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
+      <c r="F7" s="1">
+        <v>2023</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2170,7 +2147,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2181,8 +2158,8 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
+      <c r="F8" s="1">
+        <v>2023</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>32</v>
@@ -2193,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2204,8 +2181,8 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>30</v>
+      <c r="F9" s="1">
+        <v>2023</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>32</v>
@@ -2216,7 +2193,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2227,8 +2204,8 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>30</v>
+      <c r="F10" s="1">
+        <v>2023</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>32</v>
@@ -2239,7 +2216,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2250,8 +2227,8 @@
       <c r="E11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>30</v>
+      <c r="F11" s="1">
+        <v>2023</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>32</v>
@@ -2262,7 +2239,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2273,8 +2250,8 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>31</v>
+      <c r="F12" s="1">
+        <v>2022</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2282,7 +2259,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2293,8 +2270,8 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>31</v>
+      <c r="F13" s="1">
+        <v>2022</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>32</v>
@@ -2305,7 +2282,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2316,8 +2293,8 @@
       <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>31</v>
+      <c r="F14" s="1">
+        <v>2022</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>32</v>
@@ -2328,7 +2305,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2339,8 +2316,8 @@
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
+      <c r="F15" s="1">
+        <v>2022</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>32</v>
@@ -2351,7 +2328,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2362,8 +2339,8 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
+      <c r="F16" s="1">
+        <v>2022</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>32</v>
@@ -2374,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2400,7 +2377,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2426,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2452,7 +2429,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2463,8 +2440,8 @@
       <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>18</v>
+      <c r="F20" s="1">
+        <v>2024</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2472,7 +2449,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2498,7 +2475,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2524,7 +2501,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2547,7 +2524,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2573,7 +2550,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2602,7 +2579,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2625,10 +2602,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B27" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2654,7 +2631,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2680,7 +2657,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2691,8 +2668,8 @@
       <c r="E29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
+      <c r="F29" s="1">
+        <v>2024</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>32</v>
@@ -2706,7 +2683,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2717,8 +2694,8 @@
       <c r="E30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>18</v>
+      <c r="F30" s="1">
+        <v>2024</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>32</v>
@@ -2732,7 +2709,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2743,8 +2720,8 @@
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>18</v>
+      <c r="F31" s="1">
+        <v>2024</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>32</v>
@@ -2758,7 +2735,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2769,8 +2746,8 @@
       <c r="E32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>30</v>
+      <c r="F32" s="1">
+        <v>2023</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -2778,7 +2755,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2789,8 +2766,8 @@
       <c r="E33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>18</v>
+      <c r="F33" s="1">
+        <v>2024</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>49</v>
@@ -2804,7 +2781,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2815,8 +2792,8 @@
       <c r="E34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>18</v>
+      <c r="F34" s="1">
+        <v>2024</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>32</v>
@@ -2830,7 +2807,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2841,8 +2818,8 @@
       <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>18</v>
+      <c r="F35" s="1">
+        <v>2024</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>32</v>
@@ -2853,7 +2830,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2864,8 +2841,8 @@
       <c r="E36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>18</v>
+      <c r="F36" s="1">
+        <v>2024</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>32</v>
@@ -2879,7 +2856,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2890,8 +2867,8 @@
       <c r="E37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>18</v>
+      <c r="F37" s="1">
+        <v>2024</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>32</v>
@@ -2908,7 +2885,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2919,8 +2896,8 @@
       <c r="E38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>18</v>
+      <c r="F38" s="1">
+        <v>2024</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>32</v>
@@ -2931,10 +2908,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B39" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2945,8 +2922,8 @@
       <c r="E39" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>18</v>
+      <c r="F39" s="1">
+        <v>2024</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
@@ -2960,7 +2937,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2971,8 +2948,8 @@
       <c r="E40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
+      <c r="F40" s="1">
+        <v>2024</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>32</v>
@@ -2986,7 +2963,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2997,8 +2974,8 @@
       <c r="E41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>30</v>
+      <c r="F41" s="1">
+        <v>2023</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>32</v>
@@ -3012,7 +2989,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3023,8 +3000,8 @@
       <c r="E42" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>30</v>
+      <c r="F42" s="1">
+        <v>2023</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>32</v>
@@ -3038,7 +3015,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3049,8 +3026,8 @@
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>30</v>
+      <c r="F43" s="1">
+        <v>2023</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>32</v>
@@ -3064,7 +3041,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3075,8 +3052,8 @@
       <c r="E44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>31</v>
+      <c r="F44" s="1">
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
@@ -3084,7 +3061,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3095,8 +3072,8 @@
       <c r="E45" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>30</v>
+      <c r="F45" s="1">
+        <v>2023</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>49</v>
@@ -3110,7 +3087,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3121,8 +3098,8 @@
       <c r="E46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>30</v>
+      <c r="F46" s="1">
+        <v>2023</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>32</v>
@@ -3136,7 +3113,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3147,8 +3124,8 @@
       <c r="E47" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>30</v>
+      <c r="F47" s="1">
+        <v>2023</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>32</v>
@@ -3159,7 +3136,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3170,8 +3147,8 @@
       <c r="E48" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>30</v>
+      <c r="F48" s="1">
+        <v>2023</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>32</v>
@@ -3185,7 +3162,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3196,8 +3173,8 @@
       <c r="E49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>30</v>
+      <c r="F49" s="1">
+        <v>2023</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>32</v>
@@ -3214,7 +3191,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3225,8 +3202,8 @@
       <c r="E50" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>30</v>
+      <c r="F50" s="1">
+        <v>2023</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>32</v>
@@ -3237,10 +3214,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3251,8 +3228,8 @@
       <c r="E51" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>30</v>
+      <c r="F51" s="1">
+        <v>2023</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>32</v>
@@ -3266,7 +3243,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3277,8 +3254,8 @@
       <c r="E52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>30</v>
+      <c r="F52" s="1">
+        <v>2023</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>32</v>
@@ -3413,7 +3390,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F7" sqref="F7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3451,7 +3428,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3463,7 +3440,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,7 +3448,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3483,7 +3460,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3491,7 +3468,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3503,7 +3480,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,7 +3488,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3523,7 +3500,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3531,7 +3508,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3543,7 +3520,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3563,7 +3540,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3583,7 +3560,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3603,7 +3580,7 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3615,8 +3592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3654,7 +3631,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3666,7 +3643,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,7 +3651,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3686,7 +3663,7 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3694,7 +3671,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3706,7 +3683,7 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3714,7 +3691,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3726,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3734,7 +3711,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3746,7 +3723,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +3771,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,30 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B9ABD723-07DF-4E9D-AA0E-0D01C81A4ED5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7BF31-28B0-4582-AC01-644D4C30D922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="6" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView xWindow="1695" yWindow="645" windowWidth="23235" windowHeight="14535" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NewTaxReturn!$E$1:$E$52</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="154">
   <si>
     <t>Result</t>
   </si>
@@ -213,300 +216,9 @@
     <t>MFLicNum</t>
   </si>
   <si>
-    <t>Fri Oct 25 12:58:40 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:02:01 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:02:34 EDT 2024</t>
-  </si>
-  <si>
-    <t>Fri Oct 25 13:03:06 EDT 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:54:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:55:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:55:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:56:30 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:57:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:57:48 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:58:26 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:59:04 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 15:59:43 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:00:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:01:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:01:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:02:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:03:00 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:03:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:04:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:04:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:05:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:06:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:06:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:07:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:08:11 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:08:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:09:28 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:10:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:10:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:11:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:11:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:12:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:13:09 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:13:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:14:21 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:14:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:15:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:16:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:16:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:17:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:18:13 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:18:51 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:19:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:20:07 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:20:45 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:21:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:22:01 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:22:37 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:23:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:23:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:24:33 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:25:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:25:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:26:38 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:27:19 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:27:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:28:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:29:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:29:58 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:30:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:31:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:31:59 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:32:40 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:33:18 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:33:56 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:34:35 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:35:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:35:55 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:36:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:37:16 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:37:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:38:36 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:39:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:39:54 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:40:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:41:15 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:41:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:42:34 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:43:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:43:52 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:44:32 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:45:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:45:53 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:46:31 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:47:14 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:47:49 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:48:22 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:48:57 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:49:29 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:50:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:50:39 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:51:20 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:52:02 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:52:44 EST 2024</t>
-  </si>
-  <si>
-    <t>Tue Nov 12 16:53:23 EST 2024</t>
-  </si>
-  <si>
     <t>2025</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Tue Jan 28 22:12:20 EST 2025</t>
   </si>
   <si>
@@ -576,12 +288,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Tue Jan 28 22:25:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:27:19 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Jan 28 22:29:04 EST 2025</t>
   </si>
   <si>
@@ -600,177 +306,6 @@
     <t>Tue Jan 28 22:31:55 EST 2025</t>
   </si>
   <si>
-    <t>Tue Jan 28 22:32:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:33:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:33:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:34:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:34:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:35:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:36:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:36:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:37:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:37:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:38:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:39:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:39:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:40:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:40:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:41:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:41:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:42:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:43:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:43:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:44:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:45:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:45:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:46:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:46:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:47:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:49:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:50:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:51:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:51:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:52:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:52:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:53:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:54:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:54:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:55:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:55:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:56:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:58:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:59:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:00:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:00:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:01:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:01:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:02:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:03:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:03:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:04:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:05:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:05:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:07:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:08:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:09:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:09:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:10:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:10:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:11:15 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Jan 28 23:11:48 EST 2025</t>
   </si>
   <si>
@@ -784,13 +319,201 @@
   </si>
   <si>
     <t>Tue Jan 28 23:14:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:30:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 13:31:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:34:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:35:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:36:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:36:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:37:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:38:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:38:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:39:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:40:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:40:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:41:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:42:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:42:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:43:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:43:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:44:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:45:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:45:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:46:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:46:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:47:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:48:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:48:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:49:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:49:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:52:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:53:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:54:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:54:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:55:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:55:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:56:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:57:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:57:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:58:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 16:59:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:00:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:01:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:02:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:02:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:03:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:04:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:04:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:05:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:05:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:06:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:07:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:07:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:09:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:10:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:10:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:11:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:11:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:12:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:12:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:13:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:13:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:14:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 17:15:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:13:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 06 18:14:56 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -839,19 +562,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -868,10 +591,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -906,7 +629,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -958,7 +681,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1069,21 +792,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1100,7 +823,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1152,15 +875,627 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1168,15 +1503,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1210,22 +1545,22 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1233,22 +1568,19 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>81</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1256,22 +1588,19 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>32</v>
@@ -1282,22 +1611,19 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
@@ -1308,22 +1634,19 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>84</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>32</v>
@@ -1334,22 +1657,19 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>159</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>32</v>
@@ -1357,598 +1677,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>164</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>176</v>
-      </c>
-      <c r="B18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <headerFooter>
-    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1956,26 +1685,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:K52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2015,7 +1744,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2035,7 +1764,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2058,7 +1787,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2081,7 +1810,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2104,7 +1833,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2127,7 +1856,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2147,7 +1876,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2170,7 +1899,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2193,7 +1922,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2216,7 +1945,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2239,7 +1968,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2259,7 +1988,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2282,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2305,7 +2034,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2328,7 +2057,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2351,7 +2080,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2363,7 +2092,7 @@
         <v>38</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>32</v>
@@ -2377,7 +2106,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2389,7 +2118,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>32</v>
@@ -2403,7 +2132,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2415,7 +2144,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>32</v>
@@ -2429,7 +2158,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2449,7 +2178,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2461,7 +2190,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>49</v>
@@ -2475,7 +2204,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2487,7 +2216,7 @@
         <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>32</v>
@@ -2501,7 +2230,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>114</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2513,7 +2242,7 @@
         <v>41</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>32</v>
@@ -2524,7 +2253,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2536,7 +2265,7 @@
         <v>27</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>32</v>
@@ -2550,7 +2279,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2562,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>32</v>
@@ -2579,7 +2308,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2591,7 +2320,7 @@
         <v>43</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>32</v>
@@ -2602,10 +2331,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2617,7 +2346,10 @@
         <v>44</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>32</v>
@@ -2631,7 +2363,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2643,7 +2375,7 @@
         <v>28</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>32</v>
@@ -2657,7 +2389,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2683,7 +2415,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2709,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2735,7 +2467,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2755,7 +2487,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>216</v>
+        <v>122</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2781,7 +2513,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2807,7 +2539,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2830,7 +2562,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2856,7 +2588,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2885,7 +2617,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2908,10 +2640,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>222</v>
+        <v>128</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2925,6 +2657,9 @@
       <c r="F39" s="1">
         <v>2024</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2937,7 +2672,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2963,7 +2698,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>130</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2989,7 +2724,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3015,7 +2750,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>226</v>
+        <v>132</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3041,7 +2776,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>227</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3061,7 +2796,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>134</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3087,7 +2822,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3113,7 +2848,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3136,7 +2871,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3162,7 +2897,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3191,7 +2926,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3214,10 +2949,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3231,6 +2966,9 @@
       <c r="F51" s="1">
         <v>2023</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H51" s="1" t="s">
         <v>32</v>
       </c>
@@ -3243,7 +2981,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>235</v>
+        <v>141</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3265,8 +3003,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <autoFilter ref="E1:E52" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3274,8 +3013,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3283,15 +3022,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3378,7 +3117,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3386,21 +3125,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3428,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>144</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3440,7 +3179,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,7 +3187,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>238</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3468,7 +3207,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3488,7 +3227,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3508,7 +3247,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3528,10 +3267,10 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -3540,7 +3279,7 @@
         <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3548,10 +3287,10 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3560,7 +3299,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,10 +3307,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -3580,30 +3319,30 @@
         <v>39</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3631,7 +3370,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>242</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3643,7 +3382,7 @@
         <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>152</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3651,7 +3390,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>243</v>
+        <v>87</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3671,7 +3410,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3691,7 +3430,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>245</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3711,7 +3450,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3727,26 +3466,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3771,7 +3510,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3783,15 +3522,15 @@
         <v>17</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>
@@ -3801,6 +3540,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B7BF31-28B0-4582-AC01-644D4C30D922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{8A017231-9030-4C7A-8FB3-564DDE8D7775}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="645" windowWidth="23235" windowHeight="14535" activeTab="3" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NewTaxReturn!$E$1:$E$52</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">NewTaxReturn!$E$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="168">
   <si>
     <t>Result</t>
   </si>
@@ -219,301 +219,344 @@
     <t>2025</t>
   </si>
   <si>
-    <t>Tue Jan 28 22:12:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:12:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:13:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:14:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:14:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:15:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:15:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:16:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:17:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:17:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:18:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:18:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:19:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:20:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:20:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:21:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:21:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:22:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:23:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:23:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:24:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:24:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:29:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:29:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:30:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:30:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:31:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 22:31:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:11:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:12:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:13:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:13:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Jan 28 23:14:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:30:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 13:31:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:34:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:35:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:36:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:36:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:37:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:38:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:38:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:39:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:40:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:40:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:41:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:42:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:42:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:43:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:43:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:44:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:45:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:45:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:46:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:46:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:47:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:48:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:48:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:49:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:49:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:52:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:53:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:54:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:54:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:55:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:55:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:56:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:57:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:57:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:58:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 16:59:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:00:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:01:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:02:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:02:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:03:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:04:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:04:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:05:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:05:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:06:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:07:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:07:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:09:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:10:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:10:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:11:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:11:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:12:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:12:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:13:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:13:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:14:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 17:15:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:13:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 06 18:14:56 EST 2025</t>
+    <t>Digital Advertising Gross Revenues</t>
+  </si>
+  <si>
+    <t>PTE Composite</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:56:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:57:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:57:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:58:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:58:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 21:59:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:00:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:00:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:01:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:01:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:02:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:03:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:03:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:04:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:04:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:05:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:06:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:06:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:07:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:07:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:08:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:09:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:09:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:10:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:10:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:11:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:12:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:12:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:13:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:13:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:14:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:14:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:15:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:16:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:16:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:17:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:17:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:18:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:19:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:19:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:20:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:20:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:21:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:21:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:22:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:23:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:23:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:24:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:24:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:25:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:26:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:26:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:27:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:27:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:28:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:29:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:29:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:30:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:31:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:32:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:33:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:33:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:34:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:35:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:35:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:36:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:36:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:37:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:38:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:38:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:39:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:41:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:41:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:42:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:42:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:43:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:44:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:44:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:45:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:45:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:48:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:49:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:53:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:55:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:56:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:57:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:58:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:59:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 22:59:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:00:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:01:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:01:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:02:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:02:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:03:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:03:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:04:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:04:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:05:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:05:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:06:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 11 23:07:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 12 17:03:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 12 17:11:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 12 18:09:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 12 18:10:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Wed Feb 12 18:24:53 EST 2025</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Wed Feb 12 18:34:11 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -562,19 +605,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -591,10 +634,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -629,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -681,7 +724,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -792,21 +835,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -823,7 +866,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -875,15 +918,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
@@ -891,15 +934,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,7 +976,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -956,7 +999,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -979,7 +1022,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1005,7 +1048,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1031,7 +1074,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1057,7 +1100,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1080,8 +1123,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1089,23 +1132,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D20" sqref="D20:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1139,7 +1182,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1156,7 +1199,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1173,7 +1216,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1190,7 +1233,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1210,7 +1253,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1230,7 +1273,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1250,7 +1293,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1270,7 +1313,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1290,7 +1333,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1310,7 +1353,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1330,7 +1373,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1350,7 +1393,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1370,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1390,7 +1433,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1407,7 +1450,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1430,7 +1473,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1450,7 +1493,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1470,7 +1513,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1485,8 +1528,45 @@
         <v>32</v>
       </c>
     </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1494,8 +1574,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F7"/>
@@ -1503,15 +1583,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1545,7 +1625,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1568,7 +1648,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1588,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1611,7 +1691,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1634,7 +1714,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1657,7 +1737,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1677,7 +1757,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1685,26 +1765,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:J52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,10 +1824,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1764,10 +1841,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -1787,10 +1861,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1810,10 +1881,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1833,10 +1901,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1856,10 +1921,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1876,10 +1938,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1899,10 +1958,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1922,10 +1978,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1945,10 +1998,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -1968,10 +2018,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -1988,10 +2035,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -2011,10 +2055,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -2034,10 +2075,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
@@ -2057,10 +2095,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -2080,10 +2115,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -2106,10 +2138,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -2132,10 +2161,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
@@ -2158,10 +2184,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -2178,10 +2201,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>16</v>
@@ -2204,10 +2224,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -2230,10 +2247,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
@@ -2253,10 +2267,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
@@ -2279,10 +2290,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>16</v>
@@ -2308,10 +2316,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -2334,10 +2339,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
@@ -2354,19 +2356,13 @@
       <c r="H27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>16</v>
@@ -2391,9 +2387,6 @@
       <c r="B29" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
@@ -2417,9 +2410,6 @@
       <c r="B30" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>16</v>
       </c>
@@ -2443,9 +2433,6 @@
       <c r="B31" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
       </c>
@@ -2469,9 +2456,6 @@
       <c r="B32" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
@@ -2489,9 +2473,6 @@
       <c r="B33" t="s">
         <v>122</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
       </c>
@@ -2515,9 +2496,6 @@
       <c r="B34" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
@@ -2541,9 +2519,6 @@
       <c r="B35" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>16</v>
       </c>
@@ -2564,9 +2539,6 @@
       <c r="B36" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>16</v>
       </c>
@@ -2590,9 +2562,6 @@
       <c r="B37" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
       </c>
@@ -2619,9 +2588,6 @@
       <c r="B38" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
@@ -2640,14 +2606,11 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D39" s="1" t="s">
         <v>16</v>
       </c>
@@ -2663,9 +2626,6 @@
       <c r="H39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2674,9 +2634,6 @@
       <c r="B40" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
       </c>
@@ -2700,9 +2657,6 @@
       <c r="B41" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D41" s="1" t="s">
         <v>16</v>
       </c>
@@ -2726,9 +2680,6 @@
       <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
       </c>
@@ -2752,9 +2703,6 @@
       <c r="B43" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
       </c>
@@ -2778,9 +2726,6 @@
       <c r="B44" t="s">
         <v>133</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
       </c>
@@ -2798,9 +2743,6 @@
       <c r="B45" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
       </c>
@@ -2824,9 +2766,6 @@
       <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
       </c>
@@ -2850,9 +2789,6 @@
       <c r="B47" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
       </c>
@@ -2873,9 +2809,6 @@
       <c r="B48" t="s">
         <v>137</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2897,7 +2830,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2926,10 +2859,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
@@ -2949,13 +2879,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>16</v>
@@ -2972,19 +2899,13 @@
       <c r="H51" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>141</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -3002,10 +2923,190 @@
         <v>20</v>
       </c>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" t="s">
+        <v>142</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="E1:E52" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3013,8 +3114,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3022,15 +3123,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3218,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3125,8 +3226,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -3134,12 +3235,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3167,7 +3268,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3187,7 +3288,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3207,7 +3308,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3227,7 +3328,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3247,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3267,7 +3368,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3287,7 +3388,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3307,7 +3408,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3323,13 +3424,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -3337,12 +3438,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3370,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3390,7 +3491,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3410,7 +3511,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3430,7 +3531,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3450,7 +3551,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3466,13 +3567,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:D17"/>
@@ -3480,12 +3581,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3510,7 +3611,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3527,7 +3628,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3540,6 +3641,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8A017231-9030-4C7A-8FB3-564DDE8D7775}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C16678-C893-4FEA-AE32-640C804A1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="16920" windowWidth="30960" xWindow="30600" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="2" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">NewTaxReturn!$E$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NewTaxReturn!$E$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="168">
   <si>
     <t>Result</t>
   </si>
@@ -225,108 +225,6 @@
     <t>PTE Composite</t>
   </si>
   <si>
-    <t>Tue Feb 11 21:56:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:57:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:57:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:58:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:58:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 21:59:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:00:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:00:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:01:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:01:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:02:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:03:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:03:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:04:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:04:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:05:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:06:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:06:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:07:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:07:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:08:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:09:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:09:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:10:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:10:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:11:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:12:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:12:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:13:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:13:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:14:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:14:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:15:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:16:07 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Feb 11 22:16:42 EST 2025</t>
   </si>
   <si>
@@ -462,9 +360,6 @@
     <t>Tue Feb 11 22:45:21 EST 2025</t>
   </si>
   <si>
-    <t>Tue Feb 11 22:45:58 EST 2025</t>
-  </si>
-  <si>
     <t>Tue Feb 11 22:48:21 EST 2025</t>
   </si>
   <si>
@@ -486,51 +381,6 @@
     <t>Tue Feb 11 22:58:18 EST 2025</t>
   </si>
   <si>
-    <t>Tue Feb 11 22:59:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:59:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:00:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:01:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:01:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:02:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:02:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:03:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:03:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:04:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:04:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:05:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:05:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:06:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 23:07:14 EST 2025</t>
-  </si>
-  <si>
     <t>Wed Feb 12 17:03:03 EST 2025</t>
   </si>
   <si>
@@ -546,17 +396,166 @@
     <t>Wed Feb 12 18:24:53 EST 2025</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Wed Feb 12 18:34:11 EST 2025</t>
+    <t>Mon Feb 17 20:15:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:17:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:19:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:20:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:21:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:23:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:24:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:26:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:27:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:27:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:29:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:31:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:32:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:33:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:34:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:35:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:36:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:37:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:42:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:42:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:43:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:43:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:44:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:44:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:45:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:45:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:46:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:46:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:47:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:47:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:48:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:49:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:49:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 17 20:50:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Federal EIN is not present</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 16:52:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 16:53:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 17:03:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 17:03:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 21:21:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 21:22:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 21:23:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 21:26:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 21:26:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 21:27:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 22:05:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 22:05:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 22:06:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 22:06:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 22:07:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Feb 18 22:07:59 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -605,19 +604,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -634,10 +633,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -672,7 +671,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -724,7 +723,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -835,21 +834,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -866,7 +865,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -918,34 +917,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="40.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,12 +971,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -993,13 +993,16 @@
       <c r="G2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1016,13 +1019,16 @@
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1043,12 +1049,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1069,12 +1075,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1095,12 +1101,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1123,8 +1129,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1132,26 +1138,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E21"/>
+      <selection activeCell="D20" sqref="D20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1177,12 +1184,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>151</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1193,13 +1200,16 @@
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1210,13 +1220,16 @@
       <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1227,13 +1240,16 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1248,12 +1264,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1268,12 +1284,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1287,13 +1303,16 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1307,13 +1326,16 @@
       <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1327,13 +1349,16 @@
       <c r="G9" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1347,13 +1372,16 @@
       <c r="G10" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1368,12 +1396,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1388,12 +1416,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1407,13 +1435,16 @@
       <c r="G13" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1427,13 +1458,16 @@
       <c r="H14" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1444,13 +1478,16 @@
       <c r="E15" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1468,12 +1505,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>129</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1487,13 +1524,16 @@
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1508,12 +1548,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1528,12 +1568,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1544,13 +1584,16 @@
       <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1566,7 +1609,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1574,27 +1617,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="48.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,12 +1664,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1642,13 +1686,16 @@
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1662,13 +1709,16 @@
       <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1686,12 +1736,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1709,12 +1759,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1732,12 +1782,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1757,7 +1807,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1765,29 +1815,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="41.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1819,12 +1870,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -1835,13 +1889,19 @@
       <c r="F2" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>154</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
@@ -1856,12 +1916,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
@@ -1876,12 +1939,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>16</v>
@@ -1896,12 +1962,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>61</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -1916,12 +1985,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>62</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -1932,13 +2004,19 @@
       <c r="F7" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -1953,12 +2031,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -1973,12 +2054,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>65</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -1993,12 +2077,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>66</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -2013,12 +2100,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -2029,13 +2119,19 @@
       <c r="F12" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -2050,12 +2146,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -2070,12 +2169,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>70</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
@@ -2090,12 +2192,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
@@ -2110,12 +2215,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>72</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>16</v>
@@ -2132,13 +2240,19 @@
       <c r="I17" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>107</v>
+        <v>73</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -2155,13 +2269,19 @@
       <c r="I18" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>74</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
@@ -2178,13 +2298,19 @@
       <c r="I19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>75</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>16</v>
@@ -2195,13 +2321,19 @@
       <c r="F20" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>76</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>16</v>
@@ -2218,13 +2350,19 @@
       <c r="J21" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -2241,13 +2379,19 @@
       <c r="I22" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>78</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>16</v>
@@ -2261,13 +2405,19 @@
       <c r="H23" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>16</v>
@@ -2284,13 +2434,19 @@
       <c r="I24" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>16</v>
@@ -2311,12 +2467,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>81</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>16</v>
@@ -2333,13 +2492,19 @@
       <c r="I26" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>16</v>
@@ -2357,12 +2522,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>16</v>
@@ -2379,13 +2547,19 @@
       <c r="I28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>84</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>16</v>
@@ -2402,13 +2576,19 @@
       <c r="I29" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>85</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>16</v>
@@ -2425,13 +2605,19 @@
       <c r="I30" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>86</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
@@ -2448,13 +2634,19 @@
       <c r="I31" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>121</v>
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -2465,13 +2657,19 @@
       <c r="F32" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>88</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -2488,13 +2686,19 @@
       <c r="J33" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>89</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
@@ -2511,13 +2715,19 @@
       <c r="I34" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>124</v>
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>16</v>
@@ -2531,13 +2741,19 @@
       <c r="H35" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>91</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>16</v>
@@ -2554,13 +2770,19 @@
       <c r="I36" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -2581,12 +2803,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>93</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>16</v>
@@ -2603,13 +2828,19 @@
       <c r="I38" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>94</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>16</v>
@@ -2627,12 +2858,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>95</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
@@ -2649,13 +2883,19 @@
       <c r="I40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>96</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>16</v>
@@ -2672,13 +2912,19 @@
       <c r="I41" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>97</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
@@ -2695,13 +2941,19 @@
       <c r="I42" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>132</v>
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -2718,13 +2970,19 @@
       <c r="I43" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>133</v>
+        <v>99</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -2735,13 +2993,19 @@
       <c r="F44" s="1">
         <v>2022</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>134</v>
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
@@ -2758,13 +3022,19 @@
       <c r="J45" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>101</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -2781,13 +3051,19 @@
       <c r="I46" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>102</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
@@ -2801,13 +3077,19 @@
       <c r="H47" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -2824,13 +3106,16 @@
       <c r="I48" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -2854,12 +3139,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>113</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
@@ -2876,13 +3164,19 @@
       <c r="I50" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>111</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>16</v>
@@ -2900,12 +3194,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>104</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -2922,13 +3219,19 @@
       <c r="I52" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K52" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>105</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>16</v>
@@ -2939,13 +3242,19 @@
       <c r="F53" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K53" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>112</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>16</v>
@@ -2960,12 +3269,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>115</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>16</v>
@@ -2983,12 +3295,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>114</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -2999,13 +3314,19 @@
       <c r="F56" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>141</v>
+        <v>106</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>16</v>
@@ -3020,12 +3341,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>107</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>16</v>
@@ -3043,12 +3367,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>16</v>
@@ -3059,13 +3386,19 @@
       <c r="F59" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K59" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>109</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>16</v>
@@ -3080,12 +3413,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>110</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>16</v>
@@ -3105,8 +3441,8 @@
     </row>
   </sheetData>
   <autoFilter ref="E1:E52" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3114,8 +3450,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3123,15 +3459,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3554,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3226,8 +3562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -3235,12 +3571,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,7 +3604,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3288,7 +3624,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3308,7 +3644,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3328,7 +3664,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3348,7 +3684,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3368,7 +3704,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3388,7 +3724,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3408,7 +3744,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3424,13 +3760,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -3438,12 +3774,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3471,7 +3807,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3491,7 +3827,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3511,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3531,7 +3867,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3551,7 +3887,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3567,13 +3903,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:D17"/>
@@ -3581,12 +3917,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3611,7 +3947,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3628,7 +3964,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3641,6 +3977,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C16678-C893-4FEA-AE32-640C804A1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A10CA363-38DE-4AFD-B9C8-03E1D8CD91D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="30960" windowHeight="16920" activeTab="2" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NewTaxReturn!$E$1:$E$52</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">NewTaxReturn!$E$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="278">
   <si>
     <t>Result</t>
   </si>
@@ -225,294 +225,9 @@
     <t>PTE Composite</t>
   </si>
   <si>
-    <t>Tue Feb 11 22:16:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:17:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:17:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:18:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:19:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:19:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:20:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:20:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:21:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:21:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:22:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:23:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:23:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:24:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:24:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:25:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:26:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:26:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:27:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:27:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:28:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:29:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:29:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:30:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:31:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:32:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:33:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:33:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:34:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:35:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:35:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:36:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:36:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:37:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:38:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:38:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:39:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:41:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:41:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:42:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:42:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:43:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:44:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:44:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:45:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:48:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:49:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:53:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:55:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:56:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:57:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 11 22:58:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 12 17:03:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 12 17:11:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 12 18:09:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 12 18:10:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Wed Feb 12 18:24:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:15:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:17:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:19:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:20:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:21:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:23:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:24:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:26:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:27:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:27:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:29:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:31:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:32:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:33:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:34:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:35:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:36:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:37:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:42:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:42:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:43:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:43:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:44:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:44:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:45:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:45:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:46:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:46:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:47:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:47:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:48:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:49:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:49:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 17 20:50:35 EST 2025</t>
-  </si>
-  <si>
     <t>Federal EIN is not present</t>
   </si>
   <si>
-    <t>Tue Feb 18 16:52:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 16:53:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 17:03:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 17:03:43 EST 2025</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -550,12 +265,628 @@
   </si>
   <si>
     <t>Tue Feb 18 22:07:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:13:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:15:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:17:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:18:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:18:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:19:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:19:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:20:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:21:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:21:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:22:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:22:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:23:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:23:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:24:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:24:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:25:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Feb 20 21:26:09 EST 2025</t>
+  </si>
+  <si>
+    <t>My Company is not present</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:21:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:22:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:24:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:26:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:26:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:27:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:29:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:30:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:32:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:34:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:34:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:35:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:36:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:38:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:40:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:40:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:42:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:42:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:43:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:45:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:45:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:46:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:46:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:47:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:48:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:48:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:49:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:49:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:50:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:51:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:51:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:52:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:52:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:53:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:54:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:54:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:55:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:55:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:56:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:57:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:57:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:58:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:58:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 18:59:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:00:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:00:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:01:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:02:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:03:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:03:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:04:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:04:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:05:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:06:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:06:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:07:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:07:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:08:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:09:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:10:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:10:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:11:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:12:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:12:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:13:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:13:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:14:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:15:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:15:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:16:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:17:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:18:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:18:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:19:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:20:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:20:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Feb 21 19:21:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Federal EIN is not present, Wrong App ID in QA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Mon Feb 24 17:57:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 17:57:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 17:58:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 17:59:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 17:59:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:00:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:01:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:02:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:04:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:05:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:06:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:07:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:08:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:10:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:12:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:13:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:14:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:14:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:16:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:18:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:19:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:20:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:22:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:22:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:23:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:25:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:25:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:26:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:26:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:27:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:28:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:28:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:29:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:29:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:30:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:31:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:31:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:32:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:32:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:33:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:34:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:34:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:35:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:35:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:36:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:37:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:37:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:38:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:39:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:39:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:40:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:41:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:41:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:42:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:42:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:43:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:44:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:44:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:45:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:46:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:46:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:47:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:48:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:48:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:49:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:50:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:50:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:51:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:51:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:52:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:53:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:53:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:54:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:55:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:55:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:56:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:56:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:57:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:58:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:58:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:59:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:00:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:00:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:01:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:02:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:02:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:03:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:03:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:04:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:05:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:05:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:06:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:06:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:07:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:08:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:08:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:09:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:09:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:10:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:10:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:11:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:11:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:12:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:13:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:13:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:14:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:15:09 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,19 +935,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -633,10 +964,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -671,7 +1002,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -723,7 +1054,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -834,21 +1165,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -865,7 +1196,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -917,15 +1248,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E3"/>
@@ -933,16 +1264,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="40.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="40.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,10 +1304,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -994,15 +1325,15 @@
         <v>19</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1020,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,7 +1359,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1054,7 +1385,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1080,7 +1411,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1106,7 +1437,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1129,8 +1460,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1138,24 +1469,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:E20"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="51.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.140625" style="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="29.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,7 +1520,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1201,7 +1532,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1209,7 +1540,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1221,7 +1552,7 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,7 +1560,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1241,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1249,7 +1580,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1269,7 +1600,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1289,7 +1620,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1304,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1312,7 +1643,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1327,7 +1658,7 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1335,7 +1666,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1350,7 +1681,7 @@
         <v>32</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1358,7 +1689,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1373,7 +1704,7 @@
         <v>32</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,7 +1712,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1401,7 +1732,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1421,7 +1752,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1436,7 +1767,7 @@
         <v>32</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1459,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1467,7 +1798,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1479,7 +1810,7 @@
         <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1487,7 +1818,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1510,7 +1841,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1525,7 +1856,7 @@
         <v>32</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1533,7 +1864,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1553,7 +1884,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1573,7 +1904,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1585,7 +1916,7 @@
         <v>57</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1593,7 +1924,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>196</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1609,7 +1940,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1617,25 +1948,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="48.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="48.42578125" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1666,10 +1997,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1687,15 +2018,15 @@
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1710,7 +2041,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,7 +2049,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1741,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1764,7 +2095,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1787,7 +2118,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1807,7 +2138,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1815,27 +2146,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.140625" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="41.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1875,7 +2206,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1890,7 +2221,7 @@
         <v>2024</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1898,7 +2229,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1921,7 +2252,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1944,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>206</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1967,7 +2298,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1990,7 +2321,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2005,7 +2336,7 @@
         <v>2023</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2013,7 +2344,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>209</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2036,7 +2367,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2059,7 +2390,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2082,7 +2413,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2105,7 +2436,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>213</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2120,7 +2451,7 @@
         <v>2022</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2128,7 +2459,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>214</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2151,7 +2482,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2174,7 +2505,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>216</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2197,7 +2528,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>217</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2220,7 +2551,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>218</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2241,7 +2572,7 @@
         <v>48</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2249,7 +2580,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>219</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2270,7 +2601,7 @@
         <v>23</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2278,7 +2609,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2299,7 +2630,7 @@
         <v>19</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2307,7 +2638,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2322,7 +2653,7 @@
         <v>2024</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2330,7 +2661,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2351,7 +2682,7 @@
         <v>32</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2359,7 +2690,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2380,7 +2711,7 @@
         <v>50</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2388,7 +2719,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>224</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2406,7 +2737,7 @@
         <v>32</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2414,7 +2745,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>225</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2435,7 +2766,7 @@
         <v>51</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2443,7 +2774,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2472,7 +2803,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>227</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2493,7 +2824,7 @@
         <v>53</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2501,7 +2832,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>228</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2527,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2548,7 +2879,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2556,7 +2887,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2577,7 +2908,7 @@
         <v>48</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,7 +2916,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>231</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2606,7 +2937,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2614,7 +2945,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>232</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2635,7 +2966,7 @@
         <v>19</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2974,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2658,7 +2989,7 @@
         <v>2023</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2666,7 +2997,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2687,7 +3018,7 @@
         <v>32</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2695,7 +3026,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2716,7 +3047,7 @@
         <v>50</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2724,7 +3055,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>236</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2742,7 +3073,7 @@
         <v>32</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2750,7 +3081,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2771,7 +3102,7 @@
         <v>51</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2779,7 +3110,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2808,7 +3139,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>93</v>
+        <v>239</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2829,7 +3160,7 @@
         <v>53</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -2837,7 +3168,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>240</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2863,7 +3194,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2884,7 +3215,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -2892,7 +3223,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
+        <v>242</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2913,7 +3244,7 @@
         <v>48</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -2921,7 +3252,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>243</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2942,7 +3273,7 @@
         <v>23</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2950,7 +3281,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2971,7 +3302,7 @@
         <v>19</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2979,7 +3310,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>245</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -2994,7 +3325,7 @@
         <v>2022</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3002,7 +3333,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>246</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3023,7 +3354,7 @@
         <v>32</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3031,7 +3362,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3052,7 +3383,7 @@
         <v>50</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3060,7 +3391,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3078,7 +3409,7 @@
         <v>32</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3086,7 +3417,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3107,7 +3438,7 @@
         <v>51</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -3115,7 +3446,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3144,7 +3475,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3165,7 +3496,7 @@
         <v>53</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -3173,7 +3504,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>252</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3199,7 +3530,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3220,7 +3551,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -3228,7 +3559,7 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>254</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3243,15 +3574,15 @@
         <v>56</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -3268,13 +3599,16 @@
       <c r="G54" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K54" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
@@ -3300,7 +3634,7 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -3315,15 +3649,15 @@
         <v>37</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>258</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3340,13 +3674,16 @@
       <c r="G57" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K57" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>32</v>
@@ -3372,7 +3709,7 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>260</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3387,15 +3724,15 @@
         <v>18</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>261</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3412,13 +3749,16 @@
       <c r="G60" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K60" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>262</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -3441,8 +3781,8 @@
     </row>
   </sheetData>
   <autoFilter ref="E1:E52" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3450,8 +3790,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3459,15 +3799,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3554,7 +3894,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3562,8 +3902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -3571,12 +3911,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,7 +3944,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3624,7 +3964,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3644,7 +3984,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3664,7 +4004,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>268</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3684,7 +4024,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>269</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3704,7 +4044,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>270</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -3724,7 +4064,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -3744,7 +4084,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>144</v>
+        <v>272</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -3760,13 +4100,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -3774,12 +4114,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3807,7 +4147,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>273</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3827,7 +4167,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>274</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3847,7 +4187,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3867,7 +4207,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3887,7 +4227,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3903,13 +4243,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:D17"/>
@@ -3917,12 +4257,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.85546875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3947,7 +4287,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>263</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3964,7 +4304,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3977,6 +4317,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A10CA363-38DE-4AFD-B9C8-03E1D8CD91D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DBC03-3659-4AA0-87C4-D823EB2DB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="16920" windowWidth="30960" xWindow="-120" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-120"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
-    <sheet name="Existing" r:id="rId2" sheetId="2"/>
-    <sheet name="Extension" r:id="rId3" sheetId="3"/>
-    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
-    <sheet name="Personal" r:id="rId5" sheetId="5"/>
-    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
-    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
-    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
+    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
+    <sheet name="Existing" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension" sheetId="3" r:id="rId3"/>
+    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
+    <sheet name="Personal" sheetId="5" r:id="rId5"/>
+    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
+    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
+    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">NewTaxReturn!$E$1:$E$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NewTaxReturn!$E$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="170">
   <si>
     <t>Result</t>
   </si>
@@ -231,334 +231,10 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Tue Feb 18 21:21:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 21:22:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 21:23:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 21:26:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 21:26:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 21:27:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 22:05:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 22:05:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 22:06:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 22:06:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 22:07:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Tue Feb 18 22:07:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:13:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:15:32 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:17:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:18:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:18:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:19:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:19:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:20:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:21:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:21:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:22:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:22:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:23:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:23:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:24:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:24:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:25:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Thu Feb 20 21:26:09 EST 2025</t>
-  </si>
-  <si>
     <t>My Company is not present</t>
   </si>
   <si>
-    <t>Fri Feb 21 18:21:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:22:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:24:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:26:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:26:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:27:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:29:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:30:43 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:32:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:34:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:34:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:35:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:36:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:38:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:40:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:40:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:42:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:42:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:43:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:45:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:45:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:46:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:46:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:47:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:48:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:48:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:49:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:49:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:50:29 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:51:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:51:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:52:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:52:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:53:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:54:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:54:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:55:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:55:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:56:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:57:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:57:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:58:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:58:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 18:59:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:00:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:00:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:01:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:02:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:03:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:03:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:04:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:04:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:05:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:06:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:06:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:07:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:07:53 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:08:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:09:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:10:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:10:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:11:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:12:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:12:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:13:19 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:13:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:14:33 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:15:10 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:15:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:16:25 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:17:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:18:11 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:18:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:19:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:20:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:20:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Fri Feb 21 19:21:13 EST 2025</t>
-  </si>
-  <si>
     <t>Federal EIN is not present, Wrong App ID in QA</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Mon Feb 24 17:57:12 EST 2025</t>
@@ -886,7 +562,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -935,19 +610,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -964,10 +639,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1002,7 +677,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1054,7 +729,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1165,21 +840,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1196,7 +871,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1248,35 +923,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="44.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="35.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="40.140625" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" collapsed="1"/>
+    <col min="4" max="4" width="44.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="40.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,12 +977,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1328,12 +1003,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1354,12 +1029,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1380,12 +1055,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1406,12 +1081,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1432,12 +1107,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1460,8 +1135,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1469,27 +1144,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="14.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="51.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="32.42578125" collapsed="true"/>
-    <col min="6" max="7" style="1" width="9.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="29.140625" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="14.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" collapsed="1"/>
+    <col min="4" max="4" width="51.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="32.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1515,12 +1190,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1535,12 +1210,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>178</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1555,12 +1230,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1575,12 +1250,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1595,12 +1270,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>73</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1615,12 +1290,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1638,12 +1313,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1661,12 +1336,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1684,12 +1359,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1707,12 +1382,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1727,12 +1402,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1747,12 +1422,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>188</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1770,12 +1445,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1793,12 +1468,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1813,12 +1488,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>83</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1836,12 +1511,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1859,12 +1534,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1879,12 +1554,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -1899,12 +1574,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -1919,12 +1594,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -1940,7 +1615,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1948,28 +1623,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E3"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="24.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="24.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="48.42578125" collapsed="true"/>
-    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.1796875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="48.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1995,12 +1670,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2021,12 +1696,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2044,12 +1719,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2067,12 +1742,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>92</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2090,12 +1765,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2113,12 +1788,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2138,7 +1813,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -2146,30 +1821,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:L61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" style="1" width="9.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="31.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="38.7109375" collapsed="true"/>
-    <col min="6" max="6" style="1" width="9.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="19.85546875" collapsed="true"/>
-    <col min="8" max="8" style="1" width="9.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="15.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="13.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="51.28515625" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="30.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" collapsed="1"/>
+    <col min="4" max="4" width="31.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="38.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.1796875" style="1" collapsed="1"/>
+    <col min="7" max="7" width="19.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="9" width="15.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="51.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2201,12 +1876,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -2224,12 +1899,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -2247,12 +1922,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>97</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -2270,12 +1945,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -2293,12 +1968,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -2316,12 +1991,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2339,12 +2014,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2362,12 +2037,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2385,12 +2060,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2408,12 +2083,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>212</v>
+        <v>104</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2431,12 +2106,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>105</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2454,12 +2129,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2477,12 +2152,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>107</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2500,12 +2175,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2523,12 +2198,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>217</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2546,12 +2221,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2575,12 +2250,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>219</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2604,12 +2279,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2633,12 +2308,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2656,12 +2331,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>114</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2685,12 +2360,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2714,12 +2389,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2740,12 +2415,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2769,12 +2444,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2798,12 +2473,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2827,12 +2502,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2853,12 +2528,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2879,15 +2554,15 @@
         <v>20</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2911,12 +2586,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2940,12 +2615,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2969,12 +2644,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>233</v>
+        <v>125</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2992,12 +2667,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -3021,12 +2696,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>235</v>
+        <v>127</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -3050,12 +2725,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>236</v>
+        <v>128</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -3076,12 +2751,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -3105,12 +2780,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -3134,12 +2809,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -3163,12 +2838,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -3189,12 +2864,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -3215,15 +2890,15 @@
         <v>20</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>134</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -3247,12 +2922,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>243</v>
+        <v>135</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -3276,12 +2951,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -3305,12 +2980,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3328,12 +3003,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3357,12 +3032,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3386,12 +3061,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>140</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3412,12 +3087,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3441,12 +3116,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>250</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3470,12 +3145,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3499,12 +3174,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3525,12 +3200,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>253</v>
+        <v>145</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3551,15 +3226,15 @@
         <v>20</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>32</v>
@@ -3577,12 +3252,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>147</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>32</v>
@@ -3600,15 +3275,15 @@
         <v>32</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>32</v>
@@ -3629,12 +3304,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>149</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>32</v>
@@ -3652,12 +3327,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>150</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>32</v>
@@ -3675,15 +3350,15 @@
         <v>32</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>32</v>
@@ -3704,12 +3379,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>260</v>
+        <v>152</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>32</v>
@@ -3727,12 +3402,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>261</v>
+        <v>153</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>32</v>
@@ -3750,15 +3425,15 @@
         <v>32</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>154</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>32</v>
@@ -3781,8 +3456,8 @@
     </row>
   </sheetData>
   <autoFilter ref="E1:E52" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3790,24 +3465,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="22.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="22.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="30" r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3827,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3838,7 +3513,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
@@ -3846,7 +3521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
@@ -3860,7 +3535,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
@@ -3871,7 +3546,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3882,7 +3557,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3894,7 +3569,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3902,24 +3577,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="14.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.453125" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,12 +3614,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3959,12 +3634,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>158</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3979,12 +3654,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3999,12 +3674,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -4019,12 +3694,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -4039,12 +3714,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -4059,12 +3734,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -4079,12 +3754,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -4100,29 +3775,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:G6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4142,12 +3817,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -4162,12 +3837,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -4182,12 +3857,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -4202,12 +3877,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -4222,12 +3897,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -4243,29 +3918,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="50.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="46.28515625" collapsed="true"/>
-    <col min="6" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4282,12 +3957,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>155</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -4299,12 +3974,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -4317,6 +3992,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357DBC03-3659-4AA0-87C4-D823EB2DB5A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE64C44-6D8D-418F-ADB5-9E6A7D81D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimated" sheetId="1" r:id="rId1"/>
@@ -1147,15 +1147,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.54296875" style="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="26.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="17.08984375" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="51.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="32.453125" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="7" width="9.1796875" style="1" collapsed="1"/>
@@ -1562,7 +1562,7 @@
         <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>54</v>
@@ -1824,15 +1824,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
     <col min="2" max="2" width="30.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="31.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="38.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.1796875" style="1" collapsed="1"/>
@@ -3286,7 +3286,7 @@
         <v>148</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>16</v>
@@ -3361,7 +3361,7 @@
         <v>151</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>16</v>
@@ -3436,7 +3436,7 @@
         <v>154</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>16</v>
@@ -3581,7 +3581,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3722,7 +3722,7 @@
         <v>162</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -3742,7 +3742,7 @@
         <v>163</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -3762,7 +3762,7 @@
         <v>164</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -3926,8 +3926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3982,7 +3982,7 @@
         <v>156</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>54</v>

--- a/KatalonData/RADTestData/Summary.xlsx
+++ b/KatalonData/RADTestData/Summary.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t465179\Documents\git\VPS-Katalon\VPS-Katalon\KatalonData\RADTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE64C44-6D8D-418F-ADB5-9E6A7D81D98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A5BD1B6B-EA73-4EAD-9BF6-5C62A23C4999}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3945" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}"/>
+    <workbookView activeTab="3" windowHeight="16776" windowWidth="30936" xWindow="69012" xr2:uid="{D99FAB39-5CE6-4AA4-B9C6-99B1EFA0654E}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Estimated" sheetId="1" r:id="rId1"/>
-    <sheet name="Existing" sheetId="2" r:id="rId2"/>
-    <sheet name="Extension" sheetId="3" r:id="rId3"/>
-    <sheet name="NewTaxReturn" sheetId="4" r:id="rId4"/>
-    <sheet name="Personal" sheetId="5" r:id="rId5"/>
-    <sheet name="Personal_IND" sheetId="6" r:id="rId6"/>
-    <sheet name="Personal_JNT" sheetId="7" r:id="rId7"/>
-    <sheet name="Personal_EL" sheetId="8" r:id="rId8"/>
+    <sheet name="Estimated" r:id="rId1" sheetId="1"/>
+    <sheet name="Existing" r:id="rId2" sheetId="2"/>
+    <sheet name="Extension" r:id="rId3" sheetId="3"/>
+    <sheet name="NewTaxReturn" r:id="rId4" sheetId="4"/>
+    <sheet name="Personal" r:id="rId5" sheetId="5"/>
+    <sheet name="Personal_IND" r:id="rId6" sheetId="6"/>
+    <sheet name="Personal_JNT" r:id="rId7" sheetId="7"/>
+    <sheet name="Personal_EL" r:id="rId8" sheetId="8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NewTaxReturn!$E$1:$E$52</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">NewTaxReturn!$E$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="201">
   <si>
     <t>Result</t>
   </si>
@@ -228,340 +228,434 @@
     <t>Federal EIN is not present</t>
   </si>
   <si>
+    <t>Federal EIN is not present, Wrong App ID in QA</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 18:22:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:02:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:04:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:06:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:07:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:10:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:11:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Mon Feb 24 19:11:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 17:48:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 17:48:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 17:48:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 17:49:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 17:49:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 17:49:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:26:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:26:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:27:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:27:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:28:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:29:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:30:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:32:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:32:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:33:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:33:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:34:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:34:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:35:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:42:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:44:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:47:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:47:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:48:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:52:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:53:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:53:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:55:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:56:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:56:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:58:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 18:59:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:00:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:00:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:01:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:01:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:18:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:19:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:19:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:19:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 19:20:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:00:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:00:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:01:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:01:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:02:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:02:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:02:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:03:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:04:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:05:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:05:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:07:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:07:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:09:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:11:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:16:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:16:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:16:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:17:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:17:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:19:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:19:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:22:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:23:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:24:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:24:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:27:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:28:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:29:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 20:30:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:04:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:04:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:05:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:05:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:05:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:06:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:06:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:06:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:07:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:07:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:07:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:08:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:08:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:08:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:09:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:09:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:09:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:09:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:10:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:10:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:10:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:11:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:11:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:11:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:12:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:12:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Tue Nov 04 21:12:56 EST 2025</t>
+  </si>
+  <si>
+    <t>This is in QA and Demo but not in Production</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>My Company is not present</t>
-  </si>
-  <si>
-    <t>Federal EIN is not present, Wrong App ID in QA</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 17:57:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 17:57:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 17:58:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 17:59:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 17:59:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:00:22 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:01:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:02:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:04:17 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:05:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:06:31 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:07:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:08:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:10:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:12:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:13:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:14:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:14:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:16:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:18:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:19:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:20:34 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:22:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:22:50 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:23:26 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:25:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:25:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:26:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:26:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:27:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:28:03 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:28:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:29:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:29:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:30:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:31:04 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:31:41 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:32:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:32:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:33:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:34:07 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:34:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:35:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:35:58 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:36:36 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:37:12 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:37:49 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:38:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:39:05 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:39:45 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:40:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:41:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:41:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:42:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:42:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:43:40 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:44:18 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:44:57 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:45:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:46:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:46:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:47:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:48:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:48:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:49:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:50:01 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:50:39 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:51:16 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:51:55 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:52:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:53:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:53:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:54:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:55:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:55:44 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:56:20 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:56:59 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:57:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:58:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:58:56 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 18:59:35 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:00:13 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:00:52 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:01:30 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:02:06 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:02:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:03:14 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:03:51 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:04:23 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:05:02 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:05:38 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:06:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:06:46 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:07:24 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:08:00 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:08:37 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:09:09 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:09:42 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:10:15 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:10:47 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:11:21 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:11:54 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:12:27 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:13:08 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:13:48 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:14:28 EST 2025</t>
-  </si>
-  <si>
-    <t>Mon Feb 24 19:15:09 EST 2025</t>
+    <t>Thu Nov 06 09:38:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:38:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:38:39 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:38:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:38:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:38:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:16 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:20 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:39:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Thu Nov 06 09:40:42 EST 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,19 +704,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -639,10 +733,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -677,7 +771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -729,7 +823,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -840,21 +934,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -871,7 +965,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -923,32 +1017,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office 2013 - 2022 Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BDCA51-7A9D-4BB2-A660-F3BEEC814D67}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+      <selection activeCell="A2" sqref="A2:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.1796875" style="1" collapsed="1"/>
-    <col min="4" max="4" width="44.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="40.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7265625" collapsed="true"/>
+    <col min="3" max="3" style="1" width="9.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="44.54296875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="35.54296875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.26953125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.26953125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="19.54296875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="40.1796875" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -979,10 +1073,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1005,10 +1099,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1031,10 +1125,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1057,10 +1151,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1083,10 +1177,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1109,10 +1203,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>176</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1135,8 +1229,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1144,24 +1238,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB49CF7-E4D4-4F06-BD88-EA9191F7BC6F}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J20" sqref="J20:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="32.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.1796875" style="1" collapsed="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="14.54296875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.08984375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="51.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="32.453125" collapsed="true"/>
+    <col min="6" max="7" style="1" width="9.1796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="29.1796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="52.453125" collapsed="true"/>
+    <col min="11" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1192,10 +1287,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1212,10 +1307,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1232,10 +1327,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1252,10 +1347,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1272,10 +1367,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1292,10 +1387,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1315,10 +1410,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1338,10 +1433,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1361,10 +1456,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1384,10 +1479,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1404,10 +1499,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1424,10 +1519,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1447,10 +1542,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1470,10 +1565,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -1490,10 +1585,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>191</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -1511,12 +1606,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>84</v>
+        <v>192</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -1534,12 +1629,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>193</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -1554,12 +1649,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>36</v>
@@ -1574,7 +1669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1582,7 +1677,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>54</v>
@@ -1593,8 +1688,11 @@
       <c r="I20" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1602,7 +1700,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>54</v>
@@ -1613,9 +1711,12 @@
       <c r="F21" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="J21" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1623,25 +1724,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A22222EF-2A37-441E-9CE4-90FD36DC8DDC}">
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I3"/>
+      <selection activeCell="C2" sqref="C2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="35" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.1796875" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.1796875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="48.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="24.1796875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="24.453125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="16.26953125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="48.453125" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -1672,10 +1773,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>194</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1698,10 +1799,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1721,10 +1822,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>196</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1744,10 +1845,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1767,10 +1868,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1790,10 +1891,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -1813,7 +1914,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1821,27 +1922,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}">
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="30.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="38.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.1796875" style="1" collapsed="1"/>
-    <col min="7" max="7" width="19.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="9" width="15.7265625" style="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="51.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.26953125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="31.7265625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="38.7265625" collapsed="true"/>
+    <col min="6" max="6" style="1" width="9.1796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="19.81640625" collapsed="true"/>
+    <col min="8" max="8" style="1" width="9.1796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="15.7265625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="1" width="13.26953125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="1" width="70.7265625" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -1878,10 +1979,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -1904,7 +2005,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -1927,7 +2028,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -1950,7 +2051,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -1973,7 +2074,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -1996,7 +2097,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
@@ -2019,7 +2120,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -2042,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -2065,7 +2166,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -2088,7 +2189,7 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -2111,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -2134,7 +2235,7 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -2157,7 +2258,7 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -2180,7 +2281,7 @@
         <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2203,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2226,7 +2327,7 @@
         <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2255,7 +2356,7 @@
         <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2284,7 +2385,7 @@
         <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2313,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2336,7 +2437,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2365,7 +2466,7 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
@@ -2394,7 +2495,7 @@
         <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
@@ -2420,7 +2521,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2449,7 +2550,7 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2478,7 +2579,7 @@
         <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2507,7 +2608,7 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -2533,7 +2634,7 @@
         <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2554,7 +2655,7 @@
         <v>20</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -2562,7 +2663,7 @@
         <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2591,7 +2692,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2620,7 +2721,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2649,7 +2750,7 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
@@ -2672,7 +2773,7 @@
         <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
@@ -2701,7 +2802,7 @@
         <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
@@ -2730,7 +2831,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -2756,7 +2857,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -2785,7 +2886,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -2814,7 +2915,7 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -2843,7 +2944,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -2869,7 +2970,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -2890,7 +2991,7 @@
         <v>20</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -2898,7 +2999,7 @@
         <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -2927,7 +3028,7 @@
         <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>32</v>
@@ -2956,7 +3057,7 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>32</v>
@@ -2985,7 +3086,7 @@
         <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>32</v>
@@ -3008,7 +3109,7 @@
         <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>32</v>
@@ -3037,7 +3138,7 @@
         <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>32</v>
@@ -3066,7 +3167,7 @@
         <v>35</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>32</v>
@@ -3092,7 +3193,7 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>32</v>
@@ -3121,7 +3222,7 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>32</v>
@@ -3150,7 +3251,7 @@
         <v>35</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>32</v>
@@ -3179,7 +3280,7 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>32</v>
@@ -3205,7 +3306,7 @@
         <v>35</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>32</v>
@@ -3226,7 +3327,7 @@
         <v>20</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
@@ -3234,10 +3335,10 @@
         <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>16</v>
@@ -3249,18 +3350,18 @@
         <v>56</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>16</v>
@@ -3275,7 +3376,7 @@
         <v>32</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -3283,7 +3384,7 @@
         <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>36</v>
@@ -3309,10 +3410,10 @@
         <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -3324,18 +3425,18 @@
         <v>37</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>16</v>
@@ -3350,7 +3451,7 @@
         <v>32</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -3358,7 +3459,7 @@
         <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>36</v>
@@ -3384,10 +3485,10 @@
         <v>35</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>16</v>
@@ -3399,18 +3500,18 @@
         <v>18</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>16</v>
@@ -3425,7 +3526,7 @@
         <v>32</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -3433,7 +3534,7 @@
         <v>35</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>36</v>
@@ -3456,8 +3557,8 @@
     </row>
   </sheetData>
   <autoFilter ref="E1:E52" xr:uid="{E3B7105E-5E71-456F-8D2A-C4C503B29111}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3465,8 +3566,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C48EC9F-E6C0-40A2-877C-8FE515BAA791}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F7"/>
@@ -3474,12 +3575,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="22.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="22.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3569,7 +3670,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -3577,21 +3678,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE13C096-3F8A-4B4D-A3EE-3415763F7F13}">
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26.453125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.453125" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="14.453125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3619,7 +3720,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3639,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3659,7 +3760,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3679,7 +3780,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3699,7 +3800,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>161</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3719,7 +3820,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>36</v>
@@ -3739,7 +3840,7 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>36</v>
@@ -3759,7 +3860,7 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>164</v>
+        <v>68</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>36</v>
@@ -3775,26 +3876,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A156AB6-80FF-4E48-B399-7CA373BDFD42}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="27.7265625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="27.7265625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -3822,7 +3923,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3842,7 +3943,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>32</v>
@@ -3862,7 +3963,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>32</v>
@@ -3882,7 +3983,7 @@
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
@@ -3902,7 +4003,7 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
@@ -3918,26 +4019,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F3D31C-4F04-42F4-8C54-828F1948951D}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="1" collapsed="1"/>
-    <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="50.81640625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="46.26953125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="1" max="1" style="1" width="9.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="26.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="15.81640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="50.81640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="46.26953125" collapsed="true"/>
+    <col min="6" max="16384" style="1" width="9.1796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -3962,7 +4063,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>32</v>
@@ -3979,7 +4080,7 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -3992,6 +4093,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>